--- a/All_CC_Details.xlsx
+++ b/All_CC_Details.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,7 +26,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,23 +49,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -142,10 +162,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -183,69 +203,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -269,54 +291,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -326,7 +347,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -335,7 +356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -344,7 +365,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -352,10 +373,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -384,7 +405,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -397,13 +418,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -423,7 +443,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -434,25 +454,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="24.005" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="12" max="12"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="16" max="16"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="18" max="18"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="19" max="19"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="20" max="20"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="21" max="21"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="22" max="22"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="23" max="23"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Names</t>
@@ -565,626 +610,8858 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Documents Required</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
           <t>Limit</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank INFINIA Credit Card Metal Edition</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Travel | Dining</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Dining</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Rs. 12,500 + applicable taxes</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Rs. 12,500 + applicable taxes</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Welcome bonus of 12,500 Reward Points and complimentary Club Marriott membership for the first year.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>5 Reward Points on every retail spend of Rs. 150,  reward rate of up to 3.3%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>Complimentary Priority Pass membership with unlimited free access to airport lounges and with Infinia Credit Card Lounge Access Program along with complimentary Club Marriott membership for 1 year, complimentary 2 + 1 night stay at several premium ITC hotels</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>Unlimited complimentary access to domestic lounges with the Priority Pass membership for primary as well as add-on Infinia cardholders, unlimited free domestic lounge visits per quarter with Visa/MasterCard domestic lounge program</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>Insurance cover worth Rs. 3 crore against accidental air death (applicable only in case of death due to an air accident), a cover worth Rs. 50 lakh against medical emergencies during international air travel, Credit shield cover worth Rs. 9 lakh (the outstanding amount on the card is covered in case of accidental death or permanent disability of the primary cardholder).</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>Exclusive dining privileges with the Good Food Trail Program and free Club Marriott membership, 1 + 1 complimentary buffet at ITC hotels.</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>RPs can be redeemed for flight and hotel bookings via SmartBuy (1 RP = Re. 1), Airmiles through net banking (1 RP = 1 Airmile), products and vouchers via net banking or SmartBuy (1 RP = Rs. 0.50), Apple and Tanishq vouchers (1 RP = Re. 1) cashback (1 RP = Rs. 0.30)</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>Unlimited complimentary golf games at leading golf courses across India and abroad</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>Unlimited free access to international lounges across the globe for the primary cardmember and all add-on cardholders.</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>In case the card is lost, if you report the same within 24 hours, you have zero cost liability on any fraudulent transaction made with your credit card. Bank not liable for any fraudulent transaction made prior to the time of reporting.</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>Get renewal fee waived by spending Rs. 10 lakh in the previous year.</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Nil</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>2% of the total transaction amount + taxes</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>1.99% per month or 23.8% annualized</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>1% fuel surcharge waiver up to Rs. 1,000 each month</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>NIL (Interests charges applicable)</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Nil</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>Your age should be above 21 years and below 65 years.
 You should have a stable source of monthly income.
 You should have a very good credit history and an existing relationship with HDFC Bank.</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Your latest salary slips (for salaried people) or the latest audited ITR (self-employed people).
-Updated address proof (if the address has changed).</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>In general, the HDFC Infinia Metal Edition Credit Card comes with a minimum credit limit of Rs. 8 lakhs. However, it may vary depending on the past payment behavior, credit history, or income of individuals. The card also has the No-Pre set limit feature and to avail of it, you just need to inform the HDFC Infinia customer care and they increase your credit limit temporarily. The Infinia Card is the only HDFC credit card that comes with this unique feature of a No Pre-set credit card that allows you to spend as much as you need.</t>
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>HDFC Infinia Credit Card Activation &amp; PIN Generation</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Diners Club Black Credit Card</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Travel | Dining | Shopping</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Dining , Shopping</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Rs. 10,000 (plus applicable taxes)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Rs. 10,000 (plus applicable taxes)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Complimentary memberships for a year to MMTDOUBLEBLACK, Zomato Gold, Club Marriott, Times Prime, and Amazon Prime.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>5 Reward Points for every Rs. 150 spent, accelerated Reward Points while spending on SmartBuy</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Complimentary lounge access at 1,000+ airports in India and abroad, Reward Points redeemable for flight and hotel bookings on SmartBuy (1RP = Re. 1).</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Unlimited complimentary access to the domestic lounges</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Travel-related insurance benefits including an air accident cover worth Rs. 2 crores and a credit liability cover worth up to Rs. 9 lakh.</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>2X Reward Points on weekend dining, complimentary annual membership of Zomato Gold.</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Diners Club Black Reward Points are redeemable for flight/hotel bookings (1 RP = Re. 1) on SmartBuy, for AirMiles (1 RP = 1 AirMile), on Diners Club exclusive rewards redemption catalog (1 RP = Re. 0.5) and for cashbacks (1RP = Rs. 0.30).</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>6 complimentary golf games per quarter at some of the most premium golf destinations around the world.</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>Unlimited complimentary access to the international lounges</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>Zero liability protection worth Rs. 9 lakh against a lost/stolen card.</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Waiver of renewal fee on spending Rs. 5,00,000 in the previous year.</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Nil</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>1.99% (plus applicable taxes)</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>1.99% per month (or 23.88% annually)</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>1% fuel surcharge waived (max waiver capped at Rs. 1,000/month and min transaction of  Rs. 400 required).</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>Higher of 2.5% of the amount withdrawn or Rs. 500.</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Nil</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>You should get this card if you are a high net worth individual as it has a slightly high annual fee compared the so many other credit cards. So, you should make sure that you can afford the card without much difficulty.
 This card is also a great option for you if you travel very often domestically and internationally as complimentary lounge access is one of the most exclusive features of the card.
 If you don’t want to compromise with your luxurious lifestyle and you make most of your spends using your credit card.</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>The Diners Club Black card is of great advantage for frequent flyers as it comes with unlimited complimentary domestic as well as international lounge access.
-On making purchases through the SmartBuy portal, you can earn 10x Reward Points, which is a great deal.
-You get a lot of complimentary subscriptions, including Amazon Prime, Club Marriott, Forbes, Zomato Gold, MMTDOUBLEBLACK, Times Prime, etc, that allow you to save even more.</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[]</t>
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>Advantages and Disadvantages of HDFC Diners Club Black Credit Card</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Regalia Credit Card</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Travel | Shopping</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Shopping</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Rs. 2,500 (plus applicable taxes)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Rs. 2,500 (plus applicable taxes)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>2,500 bonus Reward points</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>4 reward points every time one spends Rs. 150.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Complimentary Domestic and International Lounge Access. You get complimentary travel insurance as well.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>12 free airport lounge access per year within India.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>Insurance cover worth Rs. 1 Crore against accidental air death and coverage of up to Rs. 15 lakhs against emergency hospitalization for overseas treatment.</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Exclusive dine-out passport membership, 5% off additionally, and early access to several festivals &amp; events.</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>1 RP = Rs. 0.5 for redemption against flights and hotel bookings on HDFC Smartbuy website, 1 RP = up to Rs. 0.35 if you want to redeem against vouchers and poducts, 1 RP = Rs 0.20 for cash back, and Air miles conversion at a value of 1RP = 0.5 air mile.</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>6 airport lounge access every year outside India through the priority pass.</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>You get zero liability protection cover up to Rs 9 lacs in case of misuse or loss of card.</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>Get the annual fee waived off (second-year onwards) by spending more than 3 lakh in the previous year.</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>Rs 99 (plus applicable taxes)</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>2% on all foreign currency transactions.</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>3.6% per month or 43.2% annually</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>1% fuel surcharge waiver at all fuel stations in India on a minimum of Rs. 400 transaction and a maximum of Rs. 5000 transaction.</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>2.5% of the transaction amount or Rs. 500 (whichever is higher)</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Nil</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>The easiest way to generate a PIN for your card is to do it via internet banking. You will easily find the option to generate or change your card’s PIN under the section Manage your card.
 Another way to activate your card is to do it via ATM. You can go to your nearest ATM and find an option to activate your card and generate its PIN from the main menu of the ATM.</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Log in to your internet banking account and click on the option ‘Credit Card payment’ under the section credit card. This is one of the simplest ways to pay your card bill, provided that you have access to the internet and mobile.
-the HDFC bank mobile app also provides you with an option to make your credit card bill payment. You can simply find the option of credit cards under the section ‘Pay’ and make the payment successfully.
-The HDFC Bank bill desk portal is also an easy and quick option to pay your HDFC Regalia card bill.
-If you are having a savings account in a bank other than the HDFC bank, you can make the payment via NEFT by entering your credit card number as the account number.
-If you use wallet-based apps like Paytm, PhonePe, etc, you can pay your credit card bill through them.
-Other than all these online methods, there are a few offline methods as well, which include paying the credit card bill via ATM, via Cheque, or Cash by visiting the branch.</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>[]</t>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>HDFC Regalia Credit Card Limit</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Diners Club Premium Credit Card</t>
         </is>
       </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>2,500 bonus Reward Points</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>4 Reward Points on every retail spend of Rs. 150. Savings of up to 1.3% on all your spends through this card</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary lounge access at more than 1,000 airports lounges globally</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Up to 6 domestic airport lounge access every year</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>Insurance cover of Rs. 1 Crore for an air accident, coverage worth Rs. 25 lakhs for emergency hospitalization, and a cover worth Rs. 50,000 for baggage delay</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>You can redeem reward points against air tickets, and for AirMiles across Singapore Airlines at a rate of 1 RP = 0.50 Air Miles. 1 RP = Rs. 0.50 for redemption against Flight/Hotel bookings through Smartbuy, 1 RP = up to Rs. 0.35 for redemption against products &amp; vouchers, and 1 RP = Rs. 0.20 for CashBack</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>Up to 6 international airport lounge access every year</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder will not be liable for any fraudulent transaction done through his/her lost/stolen credit card if reported to the bank within 24 hours of the loss</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee waived off for this card on spending over Rs. 3 lakhs within one anniversary year</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>2% on all foreign currency transactions (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waived off on all fuel transactions between Rs. 400 to Rs. 5,000</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the cash amount withdrawn or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>Visit the official website of the HDFC bank.
+Scroll down to find the option ‘Ways to Bank’ and select ‘Online Banking.’
+Now under the option ‘Credit Card Net Banking,’ click on ‘Register Online.’
+Enter the required details and submit.
+Your HDFC Diners Club Premium Card will be successfully registered for internet banking after this.</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>HDFC Bank Diners Club Premium Credit Card Login/Net Banking</t>
+        </is>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Millennia Credit Card</t>
         </is>
       </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>1,000 CashPoints as a Welcome Benefit.</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>5% cashback (as CashPoints) at select partner online merchants and 1% cashback (as CashPoints) on all other spends (except fuel)</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary airport lounge access every year.</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>2 complimentary visits per quarter. (8 in a year)</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>Up to 20% discount at partner restaurants with complimentary Dineout Passport membership</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>Rewards processed as CashPoints, 1 CP = Re. 1 while redeeming against statement balance of credit card and 1 CP = Rs. 0.30 while redeeming against products and vouchers in the product catalogue, and against flight/hotel booking.</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Zero liability of the credit cardholder in case of fraudulent transactions after you have reported about the loss or theft of the card to the bank.</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee is waived off if the cardholder spends Rs. 1 Lakh or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>3.5% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>1% Fuel surcharge which is waived if you spend minimum Rs 400 in single transaction. The maximum CashBack is capped at Rs. 250 per payment cycle.</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the transaction amount, subject to a minimum fee of Rs. 500</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>The cashback earned on all other online/offline spends with the card- spends at non-partner merchants- is just 1%.
+A max capping of 1,000 CashPoints per statement cycle is applicable on CashPoints earned at the 5X accelerated rate, while you can earn another 1,000 CashPoints on the card at the normal 1X rate in a given statement cycle. A total of a maximum of 2,000 CashPoints can be earned in a statement cycle, which is equivalent to a cashback of Rs. 2,000.</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>Eligibility Criteria for HDFC Millennia Credit Card</t>
+        </is>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>HDFC Diners Club Privilege Credit Card</t>
         </is>
       </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary membership of Amazon Prime, Big Basket Star, MakeMyTrip Black Elite Tier, Zomato Pro, Times Prime Smart with HDFC Diners Club Privilege credit card</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>4 Reward Points on every Rs 150 spent, reward rate of up to 1.33%</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary membership of MakeMyTrip Black Elite Tier using this card. You also get complimentary lounge access at both domestic and international destinations with HDFC Diners Club Privilege credit card.</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>Up to 12 complimentary domestic lounge access every year</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>Insurance cover worth up to Rs 1 crore in case of an air accident and an emergency cover of Rs 25 lac in case of hospitalization abroad.</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Dineout passport membership for three months and Complimentary subscription to Zomato Pro valid for 12 months.</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>1 reward point = Rs 0.5 redeemable on SmartBuy reward portal for flight &amp; hotels bookings, 1 reward point = 0.5 Air miles.</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>Get 8 complimentary golf games(2 per quarter) at select golf courses annually in India and abroad.</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>Up to 12 complimentary international lounge access every year</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>Protection cover of Rs 9 lac in case of any fraudulent transaction reported within a stipulated time on HDFC Diners Club Privilege credit card</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee waiver on spending over Rs. 3 lakhs in the previous year.</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>Rs 99 per redemption request (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>1.99% of the conversion amount (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on fuel transactions at all fuel stations subject to a maximum waiver of Rs 500 per statement cycle</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>2.5 % of the withdrawal amount subject to a minimum charge of Rs 500</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V7" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Diners Club Rewardz Credit Card</t>
         </is>
       </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>1,000 Reward Points</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>3 Reward points per Rs. 150 spent and 10X on shopping through partner brands.</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>You can use the Reward points to book hotel/flights bookings on Smartbuy.</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Dineout passport membership for 3 months and 5% off additionally on dining.</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>For redemption against flight/hotel bookings on SmartBuy, 1 Reward Point = Rs. 0.30, 1 Reward Point = 0.30 Airmiles, 1 Reward Point = up to Rs. 0.25 for redemption against product catalogue, 1 Reward Point = Rs. 0.15 for redemption against cashback.</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder will not be liable for any transactions done on the card once the card is reported lost/stolen to the bank.</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee waived off on spending Rs. 1 lakh or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 on every redemption request (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>3% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waived off for all transactions between Rs. 400 &amp; Rs. 5,000.</t>
+        </is>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount transacted or a minimum of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V8" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Tata Neu Infinity HDFC Bank Credit Card</t>
         </is>
       </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>1,499 NeuCoins as a welcome benefit</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>10% cashback (in the form of Neucoins) on the Tata Neu app, 5% cashback on Tata partner brands, and 1.5% cashback elsewhere.</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary lounge access to domestic and international airport lounges.</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary domestic lounge access every calendar year</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>Insurance cover worth Rs. 1 crore against air accident, cover worth Rs. 15 lakhs against emergency hospitalization, and lost card liability cover worth up to Rs. 9 lakhs.</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>The earned Neu Coins can be redeemed against Tata partner brands on the tata Neu app at a rate of 1 Neu Coin = Re. 1.</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary international lounge access each year</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr">
+        <is>
+          <t>The cardholders will not be liable against any fraudulent transactions made on a lost/stolen if they report the loss of their card within 48 hours.</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee is waived off on achieving annual spends of rs. 3 lakhs or more.</t>
+        </is>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>2% of the total conversion amount.</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
+        <is>
+          <t>3.49% per month, i.e, 41.88% per annum</t>
+        </is>
+      </c>
+      <c r="S9" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for all fuel transactions between Rs. 400 and Rs. 5,000.</t>
+        </is>
+      </c>
+      <c r="T9" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount, subject to a minimum fee of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U9" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V9" s="4" t="inlineStr">
+        <is>
+          <t>Visit the HDFC Bank’s official website.
+Under the ‘Borrow’ section, click on the ‘Credit Cards’ option.
+You will be redirected to a page where all the HDFC Credit Cards have been categorised based on their features.
+Under the ‘Lifestyle’ category, select the Tata Neu Infinity Credit Card.
+Click on apply now option under that.
+Proceed further accordingly by filling in the digital application form and completing all other required formalities.</t>
+        </is>
+      </c>
+      <c r="W9" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Tata Neu Plus HDFC Bank Credit Card</t>
         </is>
       </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>1,499 NeuCoins as a welcome benefit</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>10% cashback (in the form of Neucoins) on the Tata Neu app, 5% cashback on Tata partner brands, and 1.5% cashback elsewhere.</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary lounge access to domestic and international airport lounges.</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary domestic lounge access every calendar year</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>Insurance cover worth Rs. 1 crore against air accident, cover worth Rs. 15 lakhs against emergency hospitalization, and lost card liability cover worth up to Rs. 9 lakhs.</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <t>The earned Neu Coins can be redeemed against Tata partner brands on the tata Neu app at a rate of 1 Neu Coin = Re. 1.</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary international lounge access each year</t>
+        </is>
+      </c>
+      <c r="N10" s="4" t="inlineStr">
+        <is>
+          <t>The cardholders will not be liable against any fraudulent transactions made on a lost/stolen if they report the loss of their card within 48 hours.</t>
+        </is>
+      </c>
+      <c r="O10" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee is waived off on achieving annual spends of rs. 3 lakhs or more.</t>
+        </is>
+      </c>
+      <c r="P10" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q10" s="4" t="inlineStr">
+        <is>
+          <t>2% of the total conversion amount.</t>
+        </is>
+      </c>
+      <c r="R10" s="4" t="inlineStr">
+        <is>
+          <t>3.49% per month, i.e, 41.88% per annum</t>
+        </is>
+      </c>
+      <c r="S10" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for all fuel transactions between Rs. 400 and Rs. 5,000.</t>
+        </is>
+      </c>
+      <c r="T10" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount, subject to a minimum fee of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U10" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V10" s="4" t="inlineStr">
+        <is>
+          <t>Visit the HDFC Bank’s official website.
+Under the ‘Borrow’ section, click on the ‘Credit Cards’ option.
+You will be redirected to a page where all the HDFC Credit Cards have been categorised based on their features.
+Under the ‘Lifestyle’ category, select the Tata Neu Infinity Credit Card.
+Click on apply now option under that.
+Proceed further accordingly by filling in the digital application form and completing all other required formalities.</t>
+        </is>
+      </c>
+      <c r="W10" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank RuPay IRCTC Credit Card</t>
         </is>
       </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Amazon voucher worth Rs. 500 on making the first transaction within the first 30 days.</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>1 Cash Point for every retail spend of Rs. 100 and 5x Cash Points on IRCTC bookings.</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>Get free railway lounge access every year.</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>1 complimentary railway lounge access every quarter.</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
+        <is>
+          <t>The earned Cash Points can be redeemed against travel bookings via IRCTC and several other options. 1 Cash Point = up to Re. 1.</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N11" s="4" t="inlineStr">
+        <is>
+          <t>The cardholders get a zero liability protection against a lost/stolen card if reported to the bank in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee is waived on spending Rs. 1.5 lakhs or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P11" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month.</t>
+        </is>
+      </c>
+      <c r="S11" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions.</t>
+        </is>
+      </c>
+      <c r="T11" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the cash amount or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U11" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V11" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W11" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Paytm HDFC Bank Select Credit Card</t>
         </is>
       </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Paytm First membership</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>5% cashback on all spends on Paytm Mall/Movies/Mini app, 2% cashback on all other spends on Paytm, 1% cashback on all other retail spends with the card (except walleyt reloads, fuel spends and EMI spends)</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary domestic airport lounge access</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary domestic airport lounge access every year (max 2 per quarter)</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>5% cashback on Paytm Mall/Movies/Mini apps, 2% cashback on all other spends on Paytm, 1% cashback on all other retail spends with the card (except spends on EMIs, fuel and wallet reloads)</t>
+        </is>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
+        <is>
+          <t>Redeem your Cashpoints as Cashback along with other redemption options.</t>
+        </is>
+      </c>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder shall not be liable for any fraudulent transaction made with the card post reporting the loss of card to the bank.</t>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>Joining fee waived off on spending a minimum of Rs. 50,000 within the first 90 days of card issuance, annual fee (second year onwards) waived off on the expenditure of a minimum of Rs. 1.5 lacs in the preceding 12 months.</t>
+        </is>
+      </c>
+      <c r="P12" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month or 43.2% annually</t>
+        </is>
+      </c>
+      <c r="S12" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waived off on fuel purchases of a minimum of Rs. 400 (maximum waived amount capped at Rs. 500 per month)</t>
+        </is>
+      </c>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the transaction amount (subject to a minimum charge of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U12" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V12" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Paytm HDFC Bank Credit Card</t>
         </is>
       </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 49 + GST</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 49 + GST</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Get complimentary Paytm First Membership as a welcome gift on making your first transaction worth Rs. 100 or more.</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>3% cashback Paytm mall, Paytm movies &amp; mini app, 2% cash back on other purchases on Paytm app, and 1% cashback on all other spends.</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>Up to 20% discount in partner restaurants via Dineout</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
+        <is>
+          <t>The earned cashback is sent to the cardholders in the form of Paytm vouchers or Redeem your Cashpoints as Cashback along with other redemption options.</t>
+        </is>
+      </c>
+      <c r="L13" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N13" s="4" t="inlineStr">
+        <is>
+          <t>The cardholders have zero liability on any fraudulent transactions made on their card once they report the loss of the card to the bank.</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>Monthly fee of Rs. 50 is waived off on spending Rs. 5,000 or more in a month.</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all international transactions</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S13" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions worth Rs. 400 or more.</t>
+        </is>
+      </c>
+      <c r="T13" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the cash amount withdrawn or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U13" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V13" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W13" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>Paytm HDFC Bank Mobile Credit Card</t>
         </is>
       </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 29 + GST</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 29 + GST</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>2% cashback on Paytm mall, movies &amp; Mini app, 1% cashback on other spends on Paytm app, and 0.5% cashback on all other spends.</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
+        <is>
+          <t>Up to 20% discount on partner restaurants via Dineout.</t>
+        </is>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
+        <is>
+          <t>Redeem your Cashpoints as Cashback along with other redemption options.</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N14" s="4" t="inlineStr">
+        <is>
+          <t>Cardholders will not be liable for any fraudulent transactions made on their card if the loss is reported to the bank in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
+        <is>
+          <t>The monthly fee is waived off on spending Rs. 2,500 or more in the previous month.</t>
+        </is>
+      </c>
+      <c r="P14" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency transactions</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr">
+        <is>
+          <t>3.75% per month (45% annually)</t>
+        </is>
+      </c>
+      <c r="S14" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver capped at Rs. 250 per month.</t>
+        </is>
+      </c>
+      <c r="T14" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the transacted amount subject to a minimum of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U14" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V14" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Shoppers Stop HDFC Bank Credit Card</t>
         </is>
       </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>You get a voucher worth Rs. 500 as a welcome gift which can be redeemed on a minimum spend of Rs. 5000 on private label brands.</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Earn 6 First Citizen Points on every Rs.150 spent on Private Label Brands and 2 First Citizen Points on every Rs.150 spent on all other retail transactions except fuel and wallet.</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>PayZapp offers worth upto Rs. 1,500 on select merchants like Swiggy, Zomato and BigBasket.</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>The points can be redeemed on purchases made in Shoppers Stop Outlet or online through Shoppers Stop website.</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t>Cardholder shall not be liable for any fraudulent transaction done on the card post reporting the loss of card to the bank.</t>
+        </is>
+      </c>
+      <c r="O15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q15" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on conversion amount (plus tax)</t>
+        </is>
+      </c>
+      <c r="R15" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month or 43.2% per annum</t>
+        </is>
+      </c>
+      <c r="S15" s="4" t="inlineStr">
+        <is>
+          <t>Cardholders get a 1% fuel surcharge waived (up to Rs. 250 per statement cycle), across all petrol stations in India.</t>
+        </is>
+      </c>
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>2.5 % of the transaction amount subject to a minimum charge of Rs 500.</t>
+        </is>
+      </c>
+      <c r="U15" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V15" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Shoppers Stop Black HDFC Bank Credit Card</t>
         </is>
       </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 5,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 5,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Get complimentary Shoppers Stop voucher worth Rs. 1,500 which will be redeemable on a minimum shopping of Rs. 5,000 on Private Label brands as a welcome gift.</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>Earn 20 First Citizen Points on every Rs. 150 spent on Shoppers Stop Private Label brands (maximum 2,000 First Citizen Points per month), 15 First Citizen Points on every Rs. 150 spent on all other Shoppers Stop brands (maximum 2,000 First Citizen Points per month), 5 First Citizen Points on every Rs. 150 spent on all retail transactions except fuel and wallet.</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>You get to enjoy complimentary access to domestic and international lounges.</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Lounge Access at domestic airports – 16 times in a calendar year, maximum 4 times in a quarter</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>Get Accidental air death cover worth Rs. 3 crores, Emergency overseas hospitalization for a maximum of Rs. 50 Lakhs.</t>
+        </is>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
+        <is>
+          <t>The points can be redeemed against the purchases made at the Shoppers Stop Outlet or through their official website.</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Lounge Access at international airports – 8 times in a calendar year, maximum 2 times in a quarter</t>
+        </is>
+      </c>
+      <c r="N16" s="4" t="inlineStr">
+        <is>
+          <t>For any fraudulent transaction post the loss of the card, the cardholder will not be liable if the loss of card is reported to the 24-hour call centre immediately.</t>
+        </is>
+      </c>
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P16" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q16" s="4" t="inlineStr">
+        <is>
+          <t>3.5% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R16" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S16" s="4" t="inlineStr">
+        <is>
+          <t>Fuel surcharge waiver of 1%, maximum up-to Rs. 500 per statement cycle, at all the petrol pumps across India</t>
+        </is>
+      </c>
+      <c r="T16" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of amount withdrawn or Rs. 500 whichever is higher</t>
+        </is>
+      </c>
+      <c r="U16" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V16" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W16" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>6E Rewards XL – IndiGo HDFC Bank Credit Card</t>
         </is>
       </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 plus applicable taxes (zero fee variant also available as a limited period offer)</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 plus applicable taxes (zero fee variant also available as a limited period offer)</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>1 Complimentary 6E Prime Add-On, Welcome vouchers from Accor Hotel stay (30% off )- Rs 5,000, Accor Hotel Dining voucher Rs 1,000 and Budweiser worth Rs. 250 each.</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>6E Rewards- 5% on IndiGo, 3% on dining, grocery and entertainment, and 2% for every other transaction.2zx</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary access to domestic lounges</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary domestic lounge visits annualy (max 2 per quarter)</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>3% 6E Rewards on Dining spends, discount at premium restaurants across major cities under the Good Food Trail Dining Program, 10% off additionally.</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
+        <is>
+          <t>The IndiGo 6E rewards are redeemable for 6E Rewards’ Benefits including IndiGo flight tickets (1 6E Reward Point = Re. 1).</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>If the loss of the card is reported to the bank within 24 hours, the cardholder will not be liable for any unauthorized transaction.</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P17" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>2.5% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S17" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver (min transaction of Rs. 400 required, max waiver capped at Rs. 500 per statement cycle)</t>
+        </is>
+      </c>
+      <c r="T17" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount, subject to a minimum charge of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U17" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V17" s="4" t="inlineStr">
+        <is>
+          <t>visit HDFC’s internet banking page.
+Click on Register at the bottom left corner of the screen.
+enter your details in the form on the page that opens and proceed with the registration process.</t>
+        </is>
+      </c>
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>Conclusion</t>
+        </is>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>6E Rewards – IndiGo HDFC Bank Credit Card</t>
         </is>
       </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 700 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 700 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>1 complimentary 6E Prime add-on, gift vouchers from Nissin Noddles, and Budweiser, American Tourister, free air ticket worth Rs. 1,500</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>1% 6E Rewards for every spend. 2% 6E Rewards on groceries, dining, and entertainment, and 2.5% 6E Rewards for IndiGo ticket bookings.</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>1 complimentary 6E Prime Add-On, 1 complimentary IndiGo air ticket worth Rs 1,500</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>Exciting discount offers on dining through the Good Food Trail Dining Program.</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
+        <is>
+          <t>The 6E rewards you earn using your 6E Rewards IndiGo HDFC Credit Card can be redeemed through the 6E rewards portal. 1 6E Reward = Re. 1.</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N18" s="4" t="inlineStr">
+        <is>
+          <t>You will not be liable for any fraudulent transactions done on your lost/stolen card if you report the loss within 24 hours.</t>
+        </is>
+      </c>
+      <c r="O18" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P18" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 on every redemption request</t>
+        </is>
+      </c>
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S18" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for purchases between Rs. 400 &amp; Rs. 5,000 capped at Rs. 250 per month.</t>
+        </is>
+      </c>
+      <c r="T18" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn subject to a minimum charge of Rs. 500</t>
+        </is>
+      </c>
+      <c r="U18" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V18" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W18" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Regalia First Credit Card</t>
         </is>
       </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Shopping</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>1,000 Reward Points on payment of the annual fee.</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>For every Rs. 150 spent, you will get 4 Reward Points.</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary airport lounge access across the globe, Priority Pass membership, up to 5% cashback on travel spends on Smartbuy</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary visits in a year to the domestic lounges.</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>Air accidental cover amounting to Rs 50 lakh, emergency overseas hospitalization cover worth up to Rs 10 lakh, credit liability cover worth up to Rs 5 lakh</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>Special offers and discounts of up to 30% at more than 2,000 partnered restaurants.</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t>1 RP = Re. 0.30 for flight/hotel bookings via SmaryBuy, 1 RP = 0.3 Airmile, 1 RP = Re. 0.25 when redeemed against products and vouchers, 1 RP = Re. 0.15 for redemption against cashback.</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>3 complimentary visits in a year to international lounges.</t>
+        </is>
+      </c>
+      <c r="N19" s="4" t="inlineStr">
+        <is>
+          <t>No liability against any fraudulent transaction done after the loss or theft of the card is reported to the bank.</t>
+        </is>
+      </c>
+      <c r="O19" s="4" t="inlineStr">
+        <is>
+          <t>Waived off if an amount exceeding Rs. 1 Lakh is spent using this credit card.</t>
+        </is>
+      </c>
+      <c r="P19" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99</t>
+        </is>
+      </c>
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>2% on all forex transactions</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr">
+        <is>
+          <t>3.6% monthly (or 43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S19" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions</t>
+        </is>
+      </c>
+      <c r="T19" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn or Rs. 500, higher of the two.</t>
+        </is>
+      </c>
+      <c r="U19" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V19" s="4" t="inlineStr">
+        <is>
+          <t>Visit the official website of the HDFC Bank.
+Under the section ‘Borrow,’ click on ‘Credit Cards.’
+You will be redirected to a page where you will be able to see all the HDFC Bank Credit Cards.
+Under the Lifestyle Credit Cards, choose the HDFC Bank Regalia First Credit card and click on apply now.
+Start the application process by entering your mobile number, verifying it, and proceeding further will the online application form.</t>
+        </is>
+      </c>
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>HDFC Regalia First Credit Card Login/Internet Banking</t>
+        </is>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Diners Club Miles Credit Card</t>
         </is>
       </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>1,000 Reward Points on settling the renewal membership fee.</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>4 Reward Points per Rs. 150 spent.</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary access to domestic as well as international lounges.</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>Up to 6 complimentary access to domestic lounges annually</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>Air accident Insurance up to Rs. 1 Crore, travel insurance cover worth up to Rs 50,000, emergency medical expenses cover worth up to Rs 25 Lakhs. Credit liability protection worth up to Rs 9 Lakhs.</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>15% discount and other offers on the finest restaurants all over India.</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Points = 1 Airmile, 1 RP = Re. 0.50 when redeemed against flight or hotel bookings on SmartBuy, 1 RP = Re. 0.35 for products/vouchers, and 1 RP = Re. 0.20 for cashback.</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>Up to 6 complimentary access to international lounges annually.</t>
+        </is>
+      </c>
+      <c r="N20" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O20" s="4" t="inlineStr">
+        <is>
+          <t>The annual fee can be waived on spending Rs. 1 Lakh.</t>
+        </is>
+      </c>
+      <c r="P20" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q20" s="4" t="inlineStr">
+        <is>
+          <t>3.00% of the total transaction value (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R20" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S20" s="4" t="inlineStr">
+        <is>
+          <t>1% of Fuel Surcharge Waiver (waiver capped at Rs. 250 per billing cycle) at fuel stations all over India.</t>
+        </is>
+      </c>
+      <c r="T20" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the total transaction amount (Minimum Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U20" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V20" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W20" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>IndianOil HDFC Bank Credit Card</t>
         </is>
       </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>5% of spends as Fuel Points at IndianOil outlets, groceries, and bill payments, 1 Fuel Point on every Rs. 150 spent on all other purchases, reward rate of up to 4.8%</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>Save 2.5% on your dining bills.</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>Fuel Points redeemable for Free Fuel using the complimentary IndianOil XTRAREWARDS Program (IXRP) membership at IndianOil outlets (1 FP = 96 Paise), through net-banking towards catalog products (1 FP = 20 Paise) and as cashback on the credit card (1 FP = 20 Paise)</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N21" s="4" t="inlineStr">
+        <is>
+          <t>Zero liability of credit cardholders against any unauthorized transaction if the loss or theft is reported to the bank within 24 hours post-loss or theft.</t>
+        </is>
+      </c>
+      <c r="O21" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee will be waived off on the basis of the amount spent using the credit card.</t>
+        </is>
+      </c>
+      <c r="P21" s="4" t="inlineStr">
+        <is>
+          <t>Rs 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the amount transacted</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S21" s="4" t="inlineStr">
+        <is>
+          <t>On a minimum fuel transaction of Rs. 400, you will get a fuel surcharge waiver of 1%.</t>
+        </is>
+      </c>
+      <c r="T21" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn subject to a minimum charge of Rs 500.</t>
+        </is>
+      </c>
+      <c r="U21" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V21" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W21" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>InterMiles HDFC Bank Signature Credit Card</t>
         </is>
       </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Earn up to 8,000 bonus Inter Miles on the basis of your spending as a welcome gift.
+Exciting discount vouchers for Flight &amp; Hotel bookings.</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>Get 6 Inter Miles for every retail spend of Rs. 150 and 2x InterMiles on hotel/flight bookings at intermiles.com.</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>You get complimentary domestic as well as International lounge access through VISA Lounge Program, MasterCard Lounge Program, and Priority Pass.</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>16 complimentary domestic lounge access at selected lounges in India.</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>You get exclusive Dine Out Passport membership with great dining offers.</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>The Inter Miles you earn through your InterMiles HDFC Bank Signature credit card can be redeemed easily on www.intermiles.com.</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>Up to 5 complimentary visits to International lounges via priority pass</t>
+        </is>
+      </c>
+      <c r="N22" s="4" t="inlineStr">
+        <is>
+          <t>You get zero liability protection for any fraudulent transactions once you report your card as lost/stolen.</t>
+        </is>
+      </c>
+      <c r="O22" s="4" t="inlineStr">
+        <is>
+          <t>You can get the renewal fee waived off if you have spent Rs. 3 lacs or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P22" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q22" s="4" t="inlineStr">
+        <is>
+          <t>2% on all foreign currency spends</t>
+        </is>
+      </c>
+      <c r="R22" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month</t>
+        </is>
+      </c>
+      <c r="S22" s="4" t="inlineStr">
+        <is>
+          <t>2.5% fuel surcharge will be replaced by a convenience fee of 1% plus GST.</t>
+        </is>
+      </c>
+      <c r="T22" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the transacted amount or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U22" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V22" s="4" t="inlineStr">
+        <is>
+          <t>You can simply go to the application tracking page of the HDFC bank credit cards, enter your application number or any of the required details and the status of your credit card application will be there on your screen.
+You can also contact the HDFC bank credit card customer care and ask them for your Intermiles HDFC Bank Signature credit card application status.
+Another way to check your card application status is to visit your nearest HDFC branch and ask the bank executives for the same.</t>
+        </is>
+      </c>
+      <c r="W22" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>InterMiles HDFC Bank Diners Club Credit Card</t>
         </is>
       </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 5,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 5,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Get InterMiles Gold membership for the first year and up to 25,000 bonus InterMiles.</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>8 InterMiles for every Rs. 150 spent on retail transactions, 16 InterMiles for Rs. 150 spent towards flight/hotel bookings on intermiles.com</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>Unlimited airport lounge access to 1,000+ lounges in India and all over the world.
+Exclusive discount on Etihad Airways.</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>Unlimited access to 1000+ airport lounges in India.</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>Air accident cover amounting Rs. 2 crores, emergency overseas hospitalization cover amounting Rs. 50 lakhs, travel insurance cover amounting to Rs. 55,000, and credit liability cover amounting to Rs. 9 lakhs.</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Dineout Passport Membership and 15% off additionally.</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>InterMiles you be redeemed against travel-related bookings through intermiles.com.</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>Unlimited complimentary golf games at leading golf courses in India and selected golf courses all across the world.</t>
+        </is>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>Access to leading international lounges.</t>
+        </is>
+      </c>
+      <c r="N23" s="4" t="inlineStr">
+        <is>
+          <t>Customers have zero liability on all fraudulent transactions done on the card if the loss is reported within 24 hours.</t>
+        </is>
+      </c>
+      <c r="O23" s="4" t="inlineStr">
+        <is>
+          <t>Waiver of the renewal fee on the basis of the amount spent in the previous year, i.e., Rs. 8 Lakhs.</t>
+        </is>
+      </c>
+      <c r="P23" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q23" s="4" t="inlineStr">
+        <is>
+          <t>2% on all international spends</t>
+        </is>
+      </c>
+      <c r="R23" s="4" t="inlineStr">
+        <is>
+          <t>1.99% per month</t>
+        </is>
+      </c>
+      <c r="S23" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on fuel transactions.</t>
+        </is>
+      </c>
+      <c r="T23" s="4" t="inlineStr">
+        <is>
+          <t>Higher of Rs. 500 or 2.5% of the amount withdrawn.</t>
+        </is>
+      </c>
+      <c r="U23" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V23" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W23" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>InterMiles HDFC Bank Platinum Credit Card</t>
         </is>
       </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Earn up to 3,000 Bonus InterMiles as a welcome gift on the basis of your spending.</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>Earn 4 InterMiles for every Rs. 150 spent on retail transactions and 8 InterMiles on every Rs. 150 spent on Hotel and Flight booking through intermiles.com</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary domestic lounge access</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Lounge Access at domestic airports – 8 times in a calendar year, maximum 2 times in a quarter</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>The InterMiles that you have been rewarded with can easily be redeemed through www.intermiles.com.</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N24" s="4" t="inlineStr">
+        <is>
+          <t>For any fraudulent transaction post the loss of the card, the cardholder will not be liable if the loss of card is reported to the 24-hour call centre immediately.</t>
+        </is>
+      </c>
+      <c r="O24" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee can be waived off if you have spent Rs. 2.50 Lakhs or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P24" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t>3.5% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R24" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S24" s="4" t="inlineStr">
+        <is>
+          <t>Fuel surcharge waiver of 1% on a minimum spend of Rs. 400 (waiver maximum up-to Rs. 250 per billing cycle) at all the petrol pumps across India</t>
+        </is>
+      </c>
+      <c r="T24" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of amount withdrawn or Rs. 500 whichever is higher</t>
+        </is>
+      </c>
+      <c r="U24" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V24" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W24" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Doctor’s Regalia Credit Card</t>
         </is>
       </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>You get 2,500 Reward Points as a welcome gift</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>Earn 4 Reward Points on every Rs. 150 spent on all retail transactions</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>You get to enjoy complementary access to domestic and international lounge using HDFC Bank Doctor’s Regalia Credit Card</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Lounge Access at airports across India – 12 times in a calendar year</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>Air accident insurance worth Rs. 1 Crore, Emergency overseas hospitalization cover worth up to Rs. 15 Lakhs, Credit liability cover worth up to Rs 9 Lakhs</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>Reward points can easily be redeemed for hotel and flight bookings, premium products and vouchers through https://offers.smartbuy.hdfcbank.com/regalia</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>6 Complimentary International lounge visits using the Priority Pass Membership</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t>Upon spending Rs. 3 Lakhs or more in the previous year, renewal fee of Rs. 2,500 for HDFC Bank Doctor’s Regalia Credit Card will be waived off</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>2% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr">
+        <is>
+          <t>3.49% per month (or 41.88% annually)</t>
+        </is>
+      </c>
+      <c r="S25" s="4" t="inlineStr">
+        <is>
+          <t>Fuel surcharge waiver of 1% on a minimum and maximum spend of Rs. 400 and Rs. 5000 respectively at all the petrol pumps across India</t>
+        </is>
+      </c>
+      <c r="T25" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of amount withdrawn or Rs. 500 whichever is higher</t>
+        </is>
+      </c>
+      <c r="U25" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V25" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W25" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Doctor’s Superia Credit Card</t>
         </is>
       </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Dining , Shopping</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Enjoy 1,000 reward points as a welcome benefit on payment of the joining fee.</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>Earn 3 reward points on spend of every Rs.150</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>Get Professional Indemnity Insurance coverage worth up to Rs.20 Lakhs.</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>Enjoy 50% more reward points every time you dine out at a restaurant.</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>The earned points can be redeemed to get AirMiles where 667 Reward Points = 100 AirMiles. The reward points can also be redeemed for exclusive gifts listed in the reward catalog.</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N26" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder shall not be liable for any fraudulent transaction made with the card post reporting the loss of card to the bank.</t>
+        </is>
+      </c>
+      <c r="O26" s="4" t="inlineStr">
+        <is>
+          <t>Spend Rs. 1 Lakh in a year and get waiver of next year’s annual membership fee</t>
+        </is>
+      </c>
+      <c r="P26" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q26" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all international transactions</t>
+        </is>
+      </c>
+      <c r="R26" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S26" s="4" t="inlineStr">
+        <is>
+          <t>Get 1% fuel surcharge on transactions between Rs. 400 and Rs. 5000 (max waiver capped at Rs. 250 per statement cycle)</t>
+        </is>
+      </c>
+      <c r="T26" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn (subject to a minimum of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U26" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V26" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W26" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Easy EMI Credit Card</t>
         </is>
       </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Get 500 CashPoints as a welcome bonus.</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>2.5% cashback on all online purchases. 1% cashback on all offline purchases.</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t>1 CashPoint = Re. 1 for redemption against cash and product/vouchers, 1 CashPoint = Rs. 0.30 for redemption against flight/hotel bookings.</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N27" s="4" t="inlineStr">
+        <is>
+          <t>Zero Liability Protection is provided in the case of a lost/stolen card if reported to the HDFC Bank within 24 hours after losing the card.</t>
+        </is>
+      </c>
+      <c r="O27" s="4" t="inlineStr">
+        <is>
+          <t>The joining fee is waived off on spending Rs. 20,000 or more within the first 90 days after receiving the card. Renewal fee waived off on spending Rs. 50,000 or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P27" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q27" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency transactions (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R27" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S27" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge is waived off for all fuel transactions between Rs. 400 and Rs. 5,000 (maximum benefit of Rs. 250 in a month).</t>
+        </is>
+      </c>
+      <c r="T27" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount transacted or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U27" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V27" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W27" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank MoneyBack Plus Credit Card</t>
         </is>
       </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>500 CashPoints</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>2 CashPoints for every Rs. 150 you spend on retail purchases, 5X CashPoints per EMI spends at select merchants, 10X CashPoints on partner brands.</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>Up to 15% off on dining at over 2,000 premium restaurants.</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t>CashPoints redeemable for cashback, purchasing products, flight/hotel bookings via SmartBuy and partner airlines’ AirMiles</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N28" s="4" t="inlineStr">
+        <is>
+          <t>No liability for the cardholder towards the transactions done on a lost/stolen card if the issue is reported to the bank in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O28" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee waived off on spending Rs. 50,000 or more in the previous year</t>
+        </is>
+      </c>
+      <c r="P28" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q28" s="4" t="inlineStr">
+        <is>
+          <t>3.5 % of the transacted amount</t>
+        </is>
+      </c>
+      <c r="R28" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S28" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver applicable on all fuel transactions</t>
+        </is>
+      </c>
+      <c r="T28" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount (subject to a minimum charge of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U28" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V28" s="4" t="inlineStr">
+        <is>
+          <t>For any emergency-related assistance related to your HDFC Bank MoneyBack Plus Credit Card, you can call on the 24*7 helpline number, which is 1800 266 4332.
+To send your queries via email, contact the HDFC Bank credit card customer care at customerservices.cards@hdfcbank.com.</t>
+        </is>
+      </c>
+      <c r="W28" s="4" t="inlineStr">
+        <is>
+          <t>HDFC MoneyBack Plus Credit Card Activation &amp; PIN Generation</t>
+        </is>
+      </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>HDFC MoneyBack Credit Card</t>
         </is>
       </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Dining , Shopping</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Rs 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Rs 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Get 500 Cash Points.</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>4 Reward Points on every Rs 150 spent online and 2 Reward Points on every other spent, reward rate of up to 0.67%.</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Point = Rs 0.20 for redemption against the statement balance. 1 Reward Point = Rs. 0.25  for redemption through Smartbuy Rewards portal</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
+        <is>
+          <t>Zero Liability Protection cover is provided by the HDFC bank against fraudulent transactions on your credit card if the loss is reported immediately within a stipulated time to the 24-hour HDFC Customer helpline</t>
+        </is>
+      </c>
+      <c r="O29" s="4" t="inlineStr">
+        <is>
+          <t>The joining fee is waived off on spending Rs. 20,000 or more within the first 90 days and the renewal fee is waived off on spending Rs. 50,000 in the previous year.</t>
+        </is>
+      </c>
+      <c r="P29" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q29" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per currency conversion (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R29" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S29" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all your fuel transactions using this credit card at all petrol pumps across India</t>
+        </is>
+      </c>
+      <c r="T29" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawal amount subject to a minimum charge of Rs 500</t>
+        </is>
+      </c>
+      <c r="U29" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V29" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W29" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="19.5" customHeight="1">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>HDFC Platinum Times Card</t>
         </is>
       </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Movies , Shopping</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Times Prime annual Membership and E-Vouchers Worth Rs. 5000.</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>3 Reward Points on every spend of Rs 150
+10 reward points on every weekday dining spent of Rs 150.</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>50% discount (max Rs. 600 per transaction) on Movie Tickets booked on BookMyShow and complimentary membership for EazyDiner Prime for 6 months</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
+        <is>
+          <t>You can redeem rewards by logging into your HDFC Bank net banking account and clicking on the reward redemption link.</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t>Cardholder not liable for any fraudulent transaction on the card post reporting the loss of card to the bank</t>
+        </is>
+      </c>
+      <c r="O30" s="4" t="inlineStr">
+        <is>
+          <t>Annual fee of Rs 1,000 waived off on annual spends of Rs. 2.5 lakhs or above.</t>
+        </is>
+      </c>
+      <c r="P30" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes) per redemption request</t>
+        </is>
+      </c>
+      <c r="Q30" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R30" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S30" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waived off at all filling stations across India for transactions between Rs. 400 and Rs. 5,000 (max waiver of Rs. 250 per month)</t>
+        </is>
+      </c>
+      <c r="T30" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the transaction fee subject to a minimum charge of Rs 500</t>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V30" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W30" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Freedom Credit Card</t>
         </is>
       </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>500 Cash Points as a welcome benefit</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>1 CashPoint per Rs. 150 spent on all categories, 5x Cash points on EMI transactions at merchant outlets, 10x Cash Points on Big Basket, Swiggy, BookMyShow, etc.</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>Up to 15% off on dining at over 2,000 restaurants.</t>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t>1 CashPoint = Re. 0.15 for redemption against product catalog, SmartBuy, and cashback.</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N31" s="4" t="inlineStr">
+        <is>
+          <t>Cardholders shall not be liable for any fraudulent transaction made with the card post reporting the loss of the card to the bank.</t>
+        </is>
+      </c>
+      <c r="O31" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee waived off if a minimum of Rs. 50,000 were spent in the previous year</t>
+        </is>
+      </c>
+      <c r="P31" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q31" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the conversion amount (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R31" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% per annum), 0.99% for the first 90 days.</t>
+        </is>
+      </c>
+      <c r="S31" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waived off at all filling stations across India for transactions between Rs. 400 and Rs. 5,000 (max waiver capped at Rs. 250 per month)</t>
+        </is>
+      </c>
+      <c r="T31" s="4" t="inlineStr">
+        <is>
+          <t>2.50% of the withdrawn amount (subject to a minimum charge of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U31" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V31" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W31" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Titanium Times Card</t>
         </is>
       </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Movies , Dining , Shopping</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Times Prime Membership and E-Vouchers Worth Rs. 5000.</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>5 Reward Points per Rs. 150 on dining spends on weekdays, 2 Reward Points per Rs. 150 on all other spends</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>Accelerated Reward Points (5 RPs/Rs. 150) on dining spends on weekdays, 25% off on movie tickets bookings on BookMyShow (max discount of Rs. 350 per transaction) and EazyDiner Prime Membership with dining discounts of 25% to 50%.</t>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t>The accumulated Reward Points can be redeemed for products, gift vouchers and discounts via net banking or through post.</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N32" s="4" t="inlineStr">
+        <is>
+          <t>Cardholder shall not be liable for any fraudulent transaction done on the card post reporting the loss of card to the bank</t>
+        </is>
+      </c>
+      <c r="O32" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee waived off on expenditure of Rs. 1.5 lakh in an anniversary year</t>
+        </is>
+      </c>
+      <c r="P32" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R32" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S32" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for transactions between Rs. 400 and Rs. 5,000 at all fuel stations across India (maximum waiver capped at Rs. 250 per statement cycle)</t>
+        </is>
+      </c>
+      <c r="T32" s="4" t="inlineStr">
+        <is>
+          <t>2.50% or Rs. 500, whichever is higher.</t>
+        </is>
+      </c>
+      <c r="U32" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V32" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W32" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="19.5" customHeight="1">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank All Miles Credit Card</t>
         </is>
       </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>3 Reward Points per Rs. 150 spent and 6 Reward Points per Rs. 150 spent on shopping, mobile recharge, and hotel bookings.</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>The Reward Points you earn can be redeemed against various options from the HDFC Rewards catalog.</t>
+        </is>
+      </c>
+      <c r="L33" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder will not be liable for any unauthorized transactions made on his/her card once the loss is reported to the bank.</t>
+        </is>
+      </c>
+      <c r="O33" s="4" t="inlineStr">
+        <is>
+          <t>The joining fee is waived off on spending Rs. 15,000 or more within the first 90 days and the renewal fee is waived off if a minimum of Rs. 1 lakh were spent in the previous year</t>
+        </is>
+      </c>
+      <c r="P33" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 on every redemption request (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q33" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency spends (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R33" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (or 43.2% per annum)</t>
+        </is>
+      </c>
+      <c r="S33" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions above Rs. 400 (max waiver capped at Rs. 500)</t>
+        </is>
+      </c>
+      <c r="T33" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn, subject to a minimum charge of Rs. 500</t>
+        </is>
+      </c>
+      <c r="U33" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V33" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W33" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="19.5" customHeight="1">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Solitaire Credit Card</t>
         </is>
       </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 + GST</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 + GST</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>A free wellness package from Thyrocare.</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>3 Reward Points on every spend fo Rs. 150, and 50% more Reward points on dining &amp; groceries.</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I34" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K34" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Point = Re. 0.20 for redemption against cashback.</t>
+        </is>
+      </c>
+      <c r="L34" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N34" s="4" t="inlineStr">
+        <is>
+          <t>You get zero liability protection against a lost/stolen card if the loss of the card has been reported to the bank in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O34" s="4" t="inlineStr">
+        <is>
+          <t>The annual fee is waived off on spending Rs. 50,000 or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P34" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 on every redemption request.</t>
+        </is>
+      </c>
+      <c r="Q34" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency spends.</t>
+        </is>
+      </c>
+      <c r="R34" s="4" t="inlineStr">
+        <is>
+          <t>3.6% per month (43.2% annually)</t>
+        </is>
+      </c>
+      <c r="S34" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions between Rs. 400 and Rs. 5,000.</t>
+        </is>
+      </c>
+      <c r="T34" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the cash amount withdrawn or a minimum of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U34" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V34" s="4" t="inlineStr">
+        <is>
+          <t>The card offers an accelerated reward rate on dining. Therefore, it is suitable for those who dine out often and want an affordable credit card to save more on their dining spends.
+The spend-based waiver is another great benefit of this card as one can avoid the annual fee of Rs. 1,000 just by spending Rs. 50,000 in the previous year.
+Under the milestone benefits, cardholders can earn shopping vouchers worth up to Rs. 2,000 every year.</t>
+        </is>
+      </c>
+      <c r="W34" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="19.5" customHeight="1">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Superia Credit Card</t>
         </is>
       </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>1,000 bonus Reward Points</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>3 Reward Points on every spend of Rs. 150.</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Priority Pass membership.</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>Accelerated Reward Points on dining.</t>
+        </is>
+      </c>
+      <c r="K35" s="4" t="inlineStr">
+        <is>
+          <t>The earned Reward points can be redeemed against Airmiles at a rate of 1 RP = 0.7 Airmiles.</t>
+        </is>
+      </c>
+      <c r="L35" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N35" s="4" t="inlineStr">
+        <is>
+          <t>You will not be liable for any fraudulent transactions made on a lost/stolen card if you have reported the loss to the bank in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O35" s="4" t="inlineStr">
+        <is>
+          <t>Joining fee waived off on spending Rs. 15,000 within the first 90 days and the renewal fee waived off on spending Rs. 75,000 within one anniversary year.</t>
+        </is>
+      </c>
+      <c r="P35" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 on every redemption request.</t>
+        </is>
+      </c>
+      <c r="Q35" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R35" s="4" t="inlineStr">
+        <is>
+          <t>3.49% per month</t>
+        </is>
+      </c>
+      <c r="S35" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions between Rs. 400 and Rs. 5,000.</t>
+        </is>
+      </c>
+      <c r="T35" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount subject to a minimum of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U35" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V35" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W35" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="19.5" customHeight="1">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Bharat Credit Card</t>
         </is>
       </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 + applicable taxes</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 + applicable taxes</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>5% cashback every month on spending towards bill payments, and mobile recharge, fuel and railway tickets booked through IRCTC. 5% cashback every month while paying through PayZapp/EasyEMI/SmartBuy.</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>You get 5% cashback on booking railway tickets through IRCTC.</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I36" s="4" t="inlineStr">
+        <is>
+          <t>Accidental death cover of up to Rs. 50 Lakhs</t>
+        </is>
+      </c>
+      <c r="J36" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K36" s="4" t="inlineStr">
+        <is>
+          <t>The reward points can be redeemed as cash back at the request of the cardholder. 1 Reward Point = Re. 1</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N36" s="4" t="inlineStr">
+        <is>
+          <t>Cardholders will not be held liable for card loss/theft on informing the bank within the prescribed time frame</t>
+        </is>
+      </c>
+      <c r="O36" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee waived off on spending Rs. 20,000 in previous year</t>
+        </is>
+      </c>
+      <c r="P36" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99</t>
+        </is>
+      </c>
+      <c r="Q36" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the conversion amount</t>
+        </is>
+      </c>
+      <c r="R36" s="4" t="inlineStr">
+        <is>
+          <t>3.6% p.m. (43.2% p.a.)</t>
+        </is>
+      </c>
+      <c r="S36" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on minimum transaction of Rs. 400. The waiver is capped at Rs. 250 per billing cycle</t>
+        </is>
+      </c>
+      <c r="T36" s="4" t="inlineStr">
+        <is>
+          <t>2.5% or Rs. 500 whichever is higher</t>
+        </is>
+      </c>
+      <c r="U36" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V36" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W36" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="37" ht="19.5" customHeight="1">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>HDFC Bank Titanium Edge Credit Card</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>2 Reward Points on every spend of Rs. 150.</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I37" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>Accelerated Reward Points on dining.</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr">
+        <is>
+          <t>The earned Reward Points can be redeemed against cash at a rate of 1 RP = Re. 0.10.</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N37" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder will not be liable for any fraudulent transactions made on a lost or stolen card if the loss has been reported lost to the bank in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O37" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee is waived off if you have spent Rs. 50,000 or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P37" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 on every redemption request.</t>
+        </is>
+      </c>
+      <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency spends.</t>
+        </is>
+      </c>
+      <c r="R37" s="4" t="inlineStr">
+        <is>
+          <t>3.49% per month</t>
+        </is>
+      </c>
+      <c r="S37" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions between Rs. 400 and Rs. 5,000.</t>
+        </is>
+      </c>
+      <c r="T37" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount subject to a minimum of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U37" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V37" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W37" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="19.5" customHeight="1">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>SBI ELITE Credit Card</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>Movies , Travel , Shopping</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 4,999 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 4,999 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>E-vouchers worth Rs. 5,000 from any one of the brands, including Yatra, Aditya Birla Fashion, Hush Puppies/Bata, Pantaloons, and Shoppers Stop.</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>2 Reward Points on every Rs. 100 you spend on retail purchases, 5X Reward Points on dining spends, departmental stores, and grocery purchases (reward rate of 2.5%)</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary CV (Club Vistara) Membership, complimentary Trident Privilege Red Tier membership, and free domestic and international airport lounge access.</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr">
+        <is>
+          <t>2 complimentary visits to domestic airport lounges every quarter</t>
+        </is>
+      </c>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>Zero liability protection against lost card worth Rs. 1 lakh applicable from 48 hours prior to 7 days post reporting the loss of card to the bank.</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>Get free movie tickets every month (max benefit capped at Rs. 6,000 per year and Rs. 250 per ticket, offer valid for at least 2 tickets per bookings per month), dining offers with up to 25% discount at partner restaurants (with American Express variant only)</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr">
+        <is>
+          <t>Reward Points are redeemable against gift vouchers on sbicard.com or SBI mobile app or for paying the outstanding balance of the card, 1 Reward Point = Rs. 0.25</t>
+        </is>
+      </c>
+      <c r="L38" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary rounds of green fees and up to 50% off on golf games along with 1 free lesson per month at selected golf courses across the country (you get it only with the MasterCard variant of the card)</t>
+        </is>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
+        <is>
+          <t>6 complimentary visits to international airport lounges per year (max 2 per quarter) with the Priority Pass program.</t>
+        </is>
+      </c>
+      <c r="N38" s="4" t="inlineStr">
+        <is>
+          <t>Get an insurance cover worth Rs. 1 lakh that is applicable from 48 hours prior to 7 days post reporting the loss of card</t>
+        </is>
+      </c>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee of Rs. 4,999 is waived on annual spends of Rs. 10 lakh or more in the preceding year</t>
+        </is>
+      </c>
+      <c r="P38" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes) per redemption request</t>
+        </is>
+      </c>
+      <c r="Q38" s="4" t="inlineStr">
+        <is>
+          <t>1.99% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R38" s="4" t="inlineStr">
+        <is>
+          <t>3.50% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S38" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on transactions between  Rs. 500 and Rs. 4,000 at all fuel stations across India (max waiver capped at Rs. 250 per month)</t>
+        </is>
+      </c>
+      <c r="T38" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the transaction amount, subject to a minimum charge of Rs 500</t>
+        </is>
+      </c>
+      <c r="U38" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V38" s="4" t="inlineStr">
+        <is>
+          <t>Log in to your SBI Card internet banking account and link your SBI Elite card, if not already done. After that, you can easily find an option to generate/change your credit card PIN online.
+You can also activate your credit card via an ATM. Visit your nearest SBI ATM and find an option for credit card PIN generation from the main menu.
+If you are unable to generate your credit card PIN using the above methods, you can contact SBI Card customer care and they will assist you on the same.</t>
+        </is>
+      </c>
+      <c r="W38" s="4" t="inlineStr">
+        <is>
+          <t>SBI Card ELITE Bill Payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="19.5" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>SBI AURUM Credit Card</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Movies , Travel , Dining , Shopping</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Rs. 10,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Rs. 10,000 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>40,000 Reward Points and complimentary memberships of Zomato Pro, Eazydiner Prime, Amazon Prime, Discovery Plus, Lenskart Gold and BBStar (6 months)</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>4 Reward Points per Rs. 100 spent (reward rate of 1%)</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>Complimentary domestic and international airport lounge access and complimentary airport spa access.</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>4 complimentary domestic lounge access under Visa/MasterCard domestic lounge program</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>Complimentary memberships of Zomato Pro and Eazydiner Prime and 4 movie tickets from BookMyShow every month (max cap of Rs. 250 per ticket)</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>Reward Points are redeemable for gift vouchers, hotel reservations, flight tickets, etc. on dedicated AURUM Rewards portal</t>
+        </is>
+      </c>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>Unlimited international airport lounge access with complimentary Dreamfolks lounge program membership</t>
+        </is>
+      </c>
+      <c r="N39" s="4" t="inlineStr">
+        <is>
+          <t>Cardholder not liable for fraudulent transactions post reporting the loss of card to the bank</t>
+        </is>
+      </c>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>Annual membership fee waived off on annual spends of Rs. 12,00,000</t>
+        </is>
+      </c>
+      <c r="P39" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes) per redemption request</t>
+        </is>
+      </c>
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>1.99% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R39" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S39" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waived off at all fuel stations across India.</t>
+        </is>
+      </c>
+      <c r="T39" s="4" t="inlineStr">
+        <is>
+          <t>2.50% of the withdrawn amount, subject to a minimum charge of Rs. 500</t>
+        </is>
+      </c>
+      <c r="U39" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V39" s="4" t="inlineStr">
+        <is>
+          <t>Your age should be above 18 years.
+You should have a stable source of income with a high annual income.
+You should have an excellent credit score and a strong relationship with the card issuer.</t>
+        </is>
+      </c>
+      <c r="W39" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="19.5" customHeight="1">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>SBI Prime Credit Card</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Shopping</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,999 (plus applicable charges)</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 2,999 (plus applicable charges)</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Gift voucher (worth Rs. 3,000) from any of these brands, Yatra, Aditya Birla Fashion, Bata/Hush Puppies, Shoppers Stop, and Pantaloons.</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>10 Reward Points for every spend of Rs. 100 on groceries, dining, movie and departmental store, 2 RPs for every Rs. 100 spent on all other retail.</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Trident Privilege Red Tier Membership, Complimentary Club Vistara Silver membership, &amp; complimentary international and domestic airport lounge visits.</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary domestic airport lounge visits per annum (max visits 2 per quarter)</t>
+        </is>
+      </c>
+      <c r="I40" s="4" t="inlineStr">
+        <is>
+          <t>Air accident cover (worth Rs. 50 lakhs), fraud liability cover (worth Rs. 1 lakh) applicable from 48 hours prior to 7 days post reporting about the loss of the card to the bank</t>
+        </is>
+      </c>
+      <c r="J40" s="4" t="inlineStr">
+        <is>
+          <t>5X Reward Points (10 Reward Points) on dining and movie spends</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr">
+        <is>
+          <t>Redeem reward points on Sbicard.com for gift vouchers or for settling the card’s statement balance.</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary 4 rounds of green fee and 1 complimentary golf lesson every month and also up to 50% off on golf games (With MasterCard Variant only)</t>
+        </is>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary international airport lounge access every year with Priority Pass Membership (2 per quarter)</t>
+        </is>
+      </c>
+      <c r="N40" s="4" t="inlineStr">
+        <is>
+          <t>Fraud liability cover (worth Rs. 1 lakh) applicable from 48 hours prior to 7 days post reporting the loss of card to the bank</t>
+        </is>
+      </c>
+      <c r="O40" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee is waived off if a minimum of Rs. 3 lakhs were spent in the previous year</t>
+        </is>
+      </c>
+      <c r="P40" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes) per redemption request</t>
+        </is>
+      </c>
+      <c r="Q40" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R40" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S40" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver applicable on every fuel transaction between Rs. 500 to Rs. 4,000 (maximum waiver of Rs. 250 in a month).</t>
+        </is>
+      </c>
+      <c r="T40" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U40" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V40" s="4" t="inlineStr">
+        <is>
+          <t>The joining &amp; renewal fee for the SBI Card Prime is Rs. 2,999 (plus applicable taxes). You can’t get the joining fee waived, but the renewal fee of Rs. 2,999 can be waived off on spending Rs. 3 lakhs or more in the last year.
+If the cardholder is not able to settle the outstanding bill before the due date, interest charges of 3.5% per month (42% annually) would be charged on the due amount.
+The cash advance fees on the SBI Card Prime is 2.5% of the cash amount withdrawn subject to a minimum of Rs. 500. This fee is applicable whenever you withdraw cash using SBI Card Prime.
+The card charges 3.5% of the transaction amount as foreign currency markup for purchases made in a different currency.</t>
+        </is>
+      </c>
+      <c r="W40" s="4" t="inlineStr">
+        <is>
+          <t>SBI Card Prime Bill Payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="19.5" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Cashback SBI Card</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>5% cashback for every online transaction and 1% cashback on other offline transactions and utility bill payments</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary access to airport lounges.</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary access to domestic airport lounges (1 per quarter).</t>
+        </is>
+      </c>
+      <c r="I41" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
+        <is>
+          <t>Cashback earned with the card will be automatically credited to next month’s statement.</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N41" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder will not be liable for any fraudulent transaction if the card is reported lost or stolen to the bank in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O41" s="4" t="inlineStr">
+        <is>
+          <t>The annual fee can be waived on spending Rs. 2,00,000 or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P41" s="4" t="inlineStr">
+        <is>
+          <t>NIL</t>
+        </is>
+      </c>
+      <c r="Q41" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the international transaction</t>
+        </is>
+      </c>
+      <c r="R41" s="4" t="inlineStr">
+        <is>
+          <t>3.5% p.m. (42% p.a.)</t>
+        </is>
+      </c>
+      <c r="S41" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for transactions between Rs. 500 and Rs. 3,000 at petrol pumps across India. (waiver capped at Rs. 100 per statement)</t>
+        </is>
+      </c>
+      <c r="T41" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn or a minimum charge of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U41" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V41" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W41" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="19.5" customHeight="1">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>SBI SimplyCLICK Credit Card</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Get an Amazon e-voucher worth Rs. 500 as welcome benefits after paying the annual fees.</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Point every Rs. 100 spent on offline spends (reward rate is 0.25%), 10X RPs on online spends at partner merchants (BookMyShow, Apollo24x7, etc.) (reward rate is 2.5%), 5X RPs on other online spends (reward rate = 1.25%)</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H42" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
+        <is>
+          <t>Reward Points can be redeemed for gift vouchers on sbicard.com or via the SBI mobile app, as well as for paying the card’s outstanding balance, 1 RP = Rs. 0.25</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N42" s="4" t="inlineStr">
+        <is>
+          <t>The cardholders get a zero liability protection against a lost/stolen card if the loss is informed to the bank officials timely.</t>
+        </is>
+      </c>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t>Get a renewal fee waiver on achieving total annual spends of Rs. 1 lakh in previous year.</t>
+        </is>
+      </c>
+      <c r="P42" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus taxes) on each redemption request</t>
+        </is>
+      </c>
+      <c r="Q42" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the total transaction amount</t>
+        </is>
+      </c>
+      <c r="R42" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month or 42% annualized</t>
+        </is>
+      </c>
+      <c r="S42" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waived on fuel transactions from Rs. 500 to Rs. 3,000 (max waiver capped at Rs. 100 per month)</t>
+        </is>
+      </c>
+      <c r="T42" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawal amount or a minimum fee of Rs. 500</t>
+        </is>
+      </c>
+      <c r="U42" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V42" s="4" t="inlineStr">
+        <is>
+          <t>Visit the SBI Card’s official website.
+Click on the option ‘Credit Cards.’
+Scroll down and at the very end of the page, you will see an option ‘Track Application.’ Click on that.
+Enter the application number that was sent to your registered mobile number and click on ‘Track.’
+The status of your card application will be there on your screen in seconds.</t>
+        </is>
+      </c>
+      <c r="W42" s="4" t="inlineStr">
+        <is>
+          <t>SBI Simply CLICK Credit Card Bill Payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="19.5" customHeight="1">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>SBI SimplySAVE Credit Card</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>2,000 Reward points (worth Rs. 500) on spending Rs. 2,000 or more in first 60 days of card set-up.</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Point for Rs. 100 spent (reward rate = 0.25%), 10X RPs for spends made in movies, grocery, dining, &amp; departmental stores (reward rate = 2.5%)</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I43" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>10X Reward Points on movie and dining spends</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
+        <is>
+          <t>Redeem points earned for gift vouchers on sbicard.com or SBI mobile app. Also, for paying the card’s outstanding balance. (1 Reward Point = Rs. 0.25)</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N43" s="4" t="inlineStr">
+        <is>
+          <t>On reporting the loss of the card to the bank within the stipulated time, the card holder will not be liable for any transaction done on the card.</t>
+        </is>
+      </c>
+      <c r="O43" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee can be waived off on incurring Rs. 1 lakh in the previous year</t>
+        </is>
+      </c>
+      <c r="P43" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes) per redemption request</t>
+        </is>
+      </c>
+      <c r="Q43" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R43" s="4" t="inlineStr">
+        <is>
+          <t>3.50% per month (or 42% annually)</t>
+        </is>
+      </c>
+      <c r="S43" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on transactions between Rs. 500 and Rs. 3,000 (capped at Rs. 100 per month)</t>
+        </is>
+      </c>
+      <c r="T43" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U43" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V43" s="4" t="inlineStr">
+        <is>
+          <t>Visit the official website of the bank at SBI Card.
+Click on ‘New User? Register Now.’
+Now, enter the required details, which include your card number, CVV, and Date of birth.
+Enter that OTP received on the mobile number which is registered with your card to complete the verification process.
+After successful verification, you will need to enter your username and password and then click on confirm.
+Now your card is registered for net banking.</t>
+        </is>
+      </c>
+      <c r="W43" s="4" t="inlineStr">
+        <is>
+          <t>SBI SimplySAVE Credit Card Bill Payment</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="19.5" customHeight="1">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>SBI Card PULSE</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Shopping</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Activation bonus of 2,000 Rewards Points.</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>10 RP for every Rs. 100 spent on Aditya Birla Stores, 5 Reward Points for every Rs. 100 spent on Dining, Entertainment, and Hotels and 1 Reward Point for every Rs. 200 spent on other categories.</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I44" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J44" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K44" s="4" t="inlineStr">
+        <is>
+          <t>You can redeem the RP’s on sbicard.com or can be used for paying outstanding balance of the credit card, 1 Reward Point = Rs. 0.25</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N44" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O44" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P44" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q44" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the conversion amount</t>
+        </is>
+      </c>
+      <c r="R44" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S44" s="4" t="inlineStr">
+        <is>
+          <t>1% surcharge waiver on fuel transactions at all fuel stations across India</t>
+        </is>
+      </c>
+      <c r="T44" s="4" t="inlineStr">
+        <is>
+          <t>2.5% on the transaction amount subject to a minimum charge of Rs 500</t>
+        </is>
+      </c>
+      <c r="U44" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V44" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W44" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="19.5" customHeight="1">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>BPCL SBI Card Octane</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>6,000 bonus RPs as a joining benefit, and every year the membership is renewed (provided the annual fee is paid).</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>25 reward points for every Rs. 100 spends at BPCL fuel stations (reward rate = 6.25%), 10 RPs for every Rs. 100 spends on groceries, departmental stores, and movie ticket purchases (reward rate = 2.5%), and 1 reward point for every Rs. 100 spent for all other expenditures (reward rate = 0.25%) except mobile wallet uploads and fuel purchases at non-BPCL stations.</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary domestic airport lounge visits</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary access to domestic lounges every year (1 per quarter).</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>10x reward points for every Rs. 100 you spend on dining and movie tickets.</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>Redeem reward points for gift vouchers on sbicard.com or on SBI mobile app, for transactions at BPCL petrol stations, and against card’s statement balance. 4 reward points = Re. 1.</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N45" s="4" t="inlineStr">
+        <is>
+          <t>No liability to the cardholder if the loss of the card is reported to the bank within stipulated time.</t>
+        </is>
+      </c>
+      <c r="O45" s="4" t="inlineStr">
+        <is>
+          <t>Next year’s renewal fee waived on annual expenditure of Rs. 2 lakh.</t>
+        </is>
+      </c>
+      <c r="P45" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes) per redemption request.</t>
+        </is>
+      </c>
+      <c r="Q45" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R45" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S45" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on transactions up to Rs. 4,000 (max waiver of Rs. 100 in a month)</t>
+        </is>
+      </c>
+      <c r="T45" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount (subject to a minimum charge of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U45" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V45" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W45" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="19.5" customHeight="1">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>BPCL SBI Credit Card</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>2,000 Activation Bonus Reward Points worth Rs. 500 on payment of joining fee (credited after 20 days of the payment of joining fee).</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Point per Rs. 100 (reward rate = 0.25%), 5x RPs on dining, movies, departmental stores, and groceries (reward rate = 1.25%), 13X RPs at BPCL pumps (reward rate = 3.25%)</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H46" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>5X Reward Points on movie and dining spends</t>
+        </is>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
+        <is>
+          <t>Reward Points redeemable against gift vouchers on sbicard.com or on SBI mobile app, for purchases at BPCL petrol stations and against cash (card’s statement balance). 4 Reward Points = Re. 1.</t>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N46" s="4" t="inlineStr">
+        <is>
+          <t>Cardholder shall not be liable for any fraudulent transaction made on the card post reporting the loss of card to the bank.</t>
+        </is>
+      </c>
+      <c r="O46" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee is waived off on a minimum spend of Rs. 50,000 in an anniversary year.</t>
+        </is>
+      </c>
+      <c r="P46" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes) per redemption request</t>
+        </is>
+      </c>
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S46" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waived off at all fuel stations across India for transactions up to Rs. 4,000 (max waiver capped at Rs. 100 per month)</t>
+        </is>
+      </c>
+      <c r="T46" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount (subject to a minimum charge of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U46" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V46" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W46" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="19.5" customHeight="1">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Air India SBI Signature Credit Card</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 4,999 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 4,999 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>You will get 20,000 reward points in the form of a welcome benefit.</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>30 RP for every Rs. 100 spent on tickets booked for self and 10 RPs for every Rs. 100 spent on tickets booked for others through airindia.in and 10 RPs for every Rs. 100 spent on tickets booked for self and others through Air India Booking office or call centers</t>
+        </is>
+      </c>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>Reward Points convertable into Air India Air Miles, accelerated reward points on Air India spends, complimentary domestic and international airport lounge access</t>
+        </is>
+      </c>
+      <c r="H47" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary visits to domestic lounges, up to 8 times a year.</t>
+        </is>
+      </c>
+      <c r="I47" s="4" t="inlineStr">
+        <is>
+          <t>Insurance cover worth Rs. 1 Lakhs against the lost card.</t>
+        </is>
+      </c>
+      <c r="J47" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K47" s="4" t="inlineStr">
+        <is>
+          <t>The reward points that the cardholders earn can be converted into Air India Air Miles. 1 Reward point = 1 AirMile</t>
+        </is>
+      </c>
+      <c r="L47" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Priority Pass membership (visits chargable)</t>
+        </is>
+      </c>
+      <c r="N47" s="4" t="inlineStr">
+        <is>
+          <t>Zero liability of credit cardholder against fraudulent transaction on the card post reporting the loss of card to the bank</t>
+        </is>
+      </c>
+      <c r="O47" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P47" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q47" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the amount transacted</t>
+        </is>
+      </c>
+      <c r="R47" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (or 42% annually)</t>
+        </is>
+      </c>
+      <c r="S47" s="4" t="inlineStr">
+        <is>
+          <t>Fuel surcharge waiver of 1% on fuel transactions between Rs. 500 and Rs. 4,000.</t>
+        </is>
+      </c>
+      <c r="T47" s="4" t="inlineStr">
+        <is>
+          <t>2.5% or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U47" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V47" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W47" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="19.5" customHeight="1">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Club Vistara SBI Card PRIME</t>
+        </is>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>Rs 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Rs 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>1 economy class air ticket e-voucher as a complimentary gift and Club Vistara Base membership</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>3 CV (Club Vistara) Points per Rs 200 you spend.</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Domestic lounge access and Air Vistara tickets as milestone benefits.</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary access to domestic lounges annually (max 1 visit every quarter)</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>Air accidents cover up to Rs 50 lacs.
+Loss of check-in baggage cover of Rs 72000.
+Loss of travel documents cover of Rs 12500.
+Cover against 4 flight cancellations in a year each limited to Rs 3500.
+Baggage damage cover up to Rs 2,500.</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
+        <is>
+          <t>Reward Points directly transferred to Club Vistara account.  You can redeem the accumulated CV Points for flights on Air Vistara and partner airlines.</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Priority Pass Membership</t>
+        </is>
+      </c>
+      <c r="N48" s="4" t="inlineStr">
+        <is>
+          <t>Zero liability cover up to Rs. 1 lakh, provided the card is reported lost to the bank within 48 hours.</t>
+        </is>
+      </c>
+      <c r="O48" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P48" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the transaction amount</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr">
+        <is>
+          <t>3.50% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S48" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="T48" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of amount withdrawn (minimum charge of Rs 500/-)</t>
+        </is>
+      </c>
+      <c r="U48" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V48" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W48" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="19.5" customHeight="1">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Air India SBI Platinum Credit Card</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>5,000 reward points after paying the joining fee (credited within 15 days from the date of payment)</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
+        <is>
+          <t>15 reward points for every Rs. 100 spent on Air India ticket bookings for self on airindia.in, 5 RPs for every Rs. 100 spent on Air India ticket bookings for others on airindia.com and 5 RPs for every Rs. 100 spent on Air India ticket bookings for self or others via Air India call centers or booking offices, Get 2 Reward points per Rs. 100 you spend.</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary access to domestic lounges</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary visits to domestic lounges every year (max 2 per quarter)</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>Lost card liability protection of Rs. 1 lakh applicable from 48 hours prior to 7 days post reporting about the card to the bank.</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>Reward points are convertible into Air India Air Miles. 1 RP = 1 AirMile</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N49" s="4" t="inlineStr">
+        <is>
+          <t>No liability to the cardholder once the card is reported lost to the bank.</t>
+        </is>
+      </c>
+      <c r="O49" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>3.5% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (or 42% per annum)</t>
+        </is>
+      </c>
+      <c r="S49" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver at fuel stations all over India on transactions between Rs. 500 and Rs. 4,000 (capped at Rs. 250).</t>
+        </is>
+      </c>
+      <c r="T49" s="4" t="inlineStr">
+        <is>
+          <t>2.5% (minimum of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U49" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V49" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W49" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="19.5" customHeight="1">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>Club Vistara SBI Card</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Rs 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>Rs 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>1 economy class air ticket e-voucher as a complimentary gift and Club Vistara Base membership</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>3 CV (Club Vistara) Points per Rs 200 you spend.</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Domestic lounge access and Air Vistara tickets as milestone benefits.</t>
+        </is>
+      </c>
+      <c r="H50" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary access to domestic lounges annually (max 1 visit every quarter)</t>
+        </is>
+      </c>
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t>Air accidents cover up to Rs 50 lacs.
+Loss of check-in baggage cover of Rs 72000.
+Loss of travel documents cover of Rs 12500.
+Cover against 4 flight cancellations in a year each limited to Rs 3500.
+Baggage damage cover up to Rs 2,500.</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K50" s="4" t="inlineStr">
+        <is>
+          <t>Reward Points directly transferred to Club Vistara account.  You can redeem the accumulated CV Points for flights on Air Vistara and partner airlines.</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Priority Pass Membership</t>
+        </is>
+      </c>
+      <c r="N50" s="4" t="inlineStr">
+        <is>
+          <t>Zero liability cover up to Rs. 1 lakh, provided the card is reported lost to the bank within 48 hours.</t>
+        </is>
+      </c>
+      <c r="O50" s="4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P50" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q50" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the transaction amount</t>
+        </is>
+      </c>
+      <c r="R50" s="4" t="inlineStr">
+        <is>
+          <t>3.50% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S50" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="T50" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of amount withdrawn (minimum charge of Rs 500/-)</t>
+        </is>
+      </c>
+      <c r="U50" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V50" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W50" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="19.5" customHeight="1">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Etihad Guest SBI Premier Card</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 4,999 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 4,999 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>5,000 Etihad Guest Miles, 2 Free Wifi vouchers on first Etihad Airways booking, complimentary Etihad Guest Gold tier status post first card transaction,</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
+        <is>
+          <t>6 Etihad Guest Miles per Rs. 100 you spend on Etihad.com, 4 Etihad Guest Miles on every Rs. 100 you spend on international purchases, and 2 Etihad Guest Miles for every other spend (except fuel purchases). A max of 40,000 Miles per year can be earned.</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Etihad Gold Tier status and 5,000 Etihad Guest Miles as a Welcome Benefit, complimentary domestic and international lounge access, up to 10% discount on direct Etihad Airways bookings, up to 10% discount on travel rewards and miles redemption, 1,500 Etihad Guest Miles on spends of Rs. 1,50,000 in a calendar quarter, 1 Etihad Companion Voucher on the annual expenditure of Rs. 8,00,000.</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
+        <is>
+          <t>8 domestic lounge access each year with a quarterly cap of 2 visits.</t>
+        </is>
+      </c>
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t>Overseas air accident cover worth Rs. 50 lakh, fraud liability cover worth Rs. 1 lakh, and an allowance of USD 1,000 in case of loss of baggage.</t>
+        </is>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
+        <is>
+          <t>The Etihad Guest Miles earned are redeemable for booking hotels, flights, and renting cars from participating travel partners, and for purchasing products on etihadguest.com or its travel partner services. Etihad Miles can also be used to pay for purchases made using the credit card.</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Priority Pass membership worth USD 99 with 4 complimentary lounge access outside India (max 2 per quarter). Visits chargeable at USD 27/visit/guest post this complimentary quota.</t>
+        </is>
+      </c>
+      <c r="N51" s="4" t="inlineStr">
+        <is>
+          <t>Fraud liability cover of Rs. 1 lakh applicable from 48 hours prior to reporting and 7 days post reporting the loss of card.</t>
+        </is>
+      </c>
+      <c r="O51" s="4" t="inlineStr">
+        <is>
+          <t>Next year’s annual membership fee waived on the expenditure of minimum Rs. 5,00,000 in a year.</t>
+        </is>
+      </c>
+      <c r="P51" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q51" s="4" t="inlineStr">
+        <is>
+          <t>3.5% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R51" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S51" s="4" t="inlineStr">
+        <is>
+          <t>The 1% fuel surcharge waiver at all fuel stations across India for transactions between Rs. 500 and Rs. 4,000 (capped at Rs. 250 per statement cycle)</t>
+        </is>
+      </c>
+      <c r="T51" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount (subject to a minimum charge of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U51" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V51" s="4" t="inlineStr">
+        <is>
+          <t>If you are a salaried employee, your age should be between 18 years to 65 years.
+If you are a self-employed individual, your age should lie between 21 years and 60 years.
+You should have a stable source of income.
+You should have a good credit score.</t>
+        </is>
+      </c>
+      <c r="W51" s="4" t="inlineStr">
+        <is>
+          <t>Etihad Guest SBI Card Premier Login/Internet Banking</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="19.5" customHeight="1">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>Etihad Guest SBI Card</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
+        <is>
+          <t>2,500 Etihad Guest Miles, Etihad Guest Silver tier status, 1 complimentary wifi voucher on first booking for Etihad Airways</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>3 Etihad Guest Miles per Rs. 100 you spend on Etihad.com, 2 Etihad Guest Miles per Rs. 100 you spend on International transactions, 1 Etihad Guest Mile on other Rs. 100 spends.</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>Etihad Guest Silver tier status, 2,500 Etihad Guest Miles, free wifi voucher on first Etihad Airways booking, 10% discount on business class and 3% discount on economy class tickets on direct Etihad Airways bookings, up to 5% discount on reward miles redemption, complimentary domestic lounge access, complimentary Priority Pass membership</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary access to domestic lounges annually (max 2/quarter)</t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>Overseas air accident cover of Rs. 25 lakh, fraud liability cover worth Rs. 50,000, lost baggage cover of up to USD 1,000</t>
+        </is>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t>Etihad Guest Miles earned redeemable for booking flights, hotels and renting cars from participating travel partners, and for purchasing products from etihadguest.com or its travel partner services. Etihad Miles can also be used to pay for purchases made using the credit card.</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Priority Pass membership worth USD 99</t>
+        </is>
+      </c>
+      <c r="N52" s="4" t="inlineStr">
+        <is>
+          <t>Fraud liability cover of Rs. 50,000 applicable on the lost card from 48 hours prior to reporting and 7 days post reporting.</t>
+        </is>
+      </c>
+      <c r="O52" s="4" t="inlineStr">
+        <is>
+          <t>Annual membership fee waived off (2nd year onwards) on minimum spends of Rs. 3 lakh in the previous year</t>
+        </is>
+      </c>
+      <c r="P52" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="Q52" s="4" t="inlineStr">
+        <is>
+          <t>3.5% (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="R52" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (or 42% annually)</t>
+        </is>
+      </c>
+      <c r="S52" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver applicable at all fuel stations in India for purchases between Rs. 500 and Rs. 4,000 (max benefit capped at Rs. 250 per payment cycle)</t>
+        </is>
+      </c>
+      <c r="T52" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount (subject to a minimum charge of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U52" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V52" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W52" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="19.5" customHeight="1">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>IRCTC SBI Card Premier</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 + applicable taxes</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 + applicable taxes</t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>1,500 Reward Points</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>For every Rs. 125 spent on dining and standing instructions related to utility spends, you will get 3 Reward Points, and 1 Reward Points on every Rs. 125 you spend on other non-fuel retail purchases</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary access to railway lounges per year</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary visits to railway lounges every year (2 each quarter) within India</t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>You get insurance coverage against air accidents, railway accidents, and a fraud liability cover.</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Point = Re. 1.</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N53" s="4" t="inlineStr">
+        <is>
+          <t>Zero liability of credit cardholders for any unlawful transactions made through his/her card post reporting the loss to the bank.</t>
+        </is>
+      </c>
+      <c r="O53" s="4" t="inlineStr">
+        <is>
+          <t>Spend-based waiver of renewal fee on the basis of the amount spent in the previous year.</t>
+        </is>
+      </c>
+      <c r="P53" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99</t>
+        </is>
+      </c>
+      <c r="Q53" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all international transactions</t>
+        </is>
+      </c>
+      <c r="R53" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month</t>
+        </is>
+      </c>
+      <c r="S53" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver</t>
+        </is>
+      </c>
+      <c r="T53" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the cash advance or Rs. 500, the higher of the two.</t>
+        </is>
+      </c>
+      <c r="U53" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V53" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W53" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="19.5" customHeight="1">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>IRCTC SBI Platinum Credit Card</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 plus applicable taxes</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 plus applicable taxes</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Earn 350 activation bonus on a single transaction of Rs 500 or more within 45 days of the activation of the credit card. Earn Rs 100 cashback on ATM cash Withdrawal for the first time.</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>Earn up to 10% Value Back as Reward Points while you book Railway Tickets on IRCTC. Earn 1 Reward Point for every Rs 125 spent. 1 Reward Point= Re. 1</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>Save 1.8% transactions charges by railway tickets on IRCTC’s website. Avail accommodation offers at more than 5000 hotels spread across 350 cities in India. Avail custom made packages from adventure, wildlife to leisure and pilgrimage across India from IRCTC Website.</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I54" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>Redeem your RPs against booking railway tickets on IRCTC ‘s Website.</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N54" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O54" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="P54" s="4" t="inlineStr">
+        <is>
+          <t>Rs 99</t>
+        </is>
+      </c>
+      <c r="Q54" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the total transaction value.</t>
+        </is>
+      </c>
+      <c r="R54" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month or 42% per annum</t>
+        </is>
+      </c>
+      <c r="S54" s="4" t="inlineStr">
+        <is>
+          <t>1% of Fuel Surcharge Waiver (Maximum waiver of Rs 100 per statement cycle) at all fuel stations across India.</t>
+        </is>
+      </c>
+      <c r="T54" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the total transaction amount (Minimum Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U54" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V54" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W54" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="19.5" customHeight="1">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>IRCTC Rupay SBI Credit Card</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 500 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>You get 350 reward points on a minimum transaction of Rs. 500 within 45 days after receiving the card. You also get Rs 100 cashback on your first ATM withdrawal within 30 days of card issuance.</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Point on every spend of Rs. 125.</t>
+        </is>
+      </c>
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>You get complimentary railway lounge access every year through the Railway Lounge Program and accommodation at more than 5000 hotels across 350+ cities in India.</t>
+        </is>
+      </c>
+      <c r="H55" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary domestic railway lounge access every year (1 per quarter).</t>
+        </is>
+      </c>
+      <c r="I55" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
+        <is>
+          <t>The RPs you earn are credited to your IRCTC Rupay SBI credit card.</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N55" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder will not be liable for any fraudulent transaction done through their card once the card is reported lost/stolen.</t>
+        </is>
+      </c>
+      <c r="O55" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="P55" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99</t>
+        </is>
+      </c>
+      <c r="Q55" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per foriegn conversion</t>
+        </is>
+      </c>
+      <c r="R55" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S55" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver across all petrol pumps in India for all transactions between Rs. 500 to Rs. 3,000. You can get a maximum waiver of Rs. 100 in a statement cycle.</t>
+        </is>
+      </c>
+      <c r="T55" s="4" t="inlineStr">
+        <is>
+          <t>2.5% or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U55" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V55" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W55" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="19.5" customHeight="1">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Yatra SBI Credit Card</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>499 plus applicable taxes</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>499 plus applicable taxes</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Get e-gift vouchers from Yatra.com worth Rs 8250/- on paying the membership fee</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>6 Reward Points per Rs. 100 spent on Movies, Groceries, Entertainment, Departmental Stores, Dining
+1 Reward Point per Rs. 100 on all other spenings.</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>You get Rs 1000 off on domestic flight bookings on min transaction of Rs 5,000. You also get Rs Rs. 4,000 off on international flight bookings on min transaction of Rs 40,000 and 20% off on domestic hotels</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I56" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary air accidental cover worth Rs 50 lacs</t>
+        </is>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>1 RP = Rs 0.25 redeemable through by visiting the SBI Card website or at www. yatra.com website</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N56" s="4" t="inlineStr">
+        <is>
+          <t>Protection cover provided in case of any unauthorized transaction made from the credit card if reported within the stipulated time</t>
+        </is>
+      </c>
+      <c r="O56" s="4" t="inlineStr">
+        <is>
+          <t>Annual and renewal fees can be waived if you spend Rs. 1 Lakh in a year.</t>
+        </is>
+      </c>
+      <c r="P56" s="4" t="inlineStr">
+        <is>
+          <t>Rs 99/- per request</t>
+        </is>
+      </c>
+      <c r="Q56" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per conversion</t>
+        </is>
+      </c>
+      <c r="R56" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S56" s="4" t="inlineStr">
+        <is>
+          <t>1 % on fuel transactions across all petrol pumps in India</t>
+        </is>
+      </c>
+      <c r="T56" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of withdrawal amount, subject to a minimum of ₹300</t>
+        </is>
+      </c>
+      <c r="U56" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V56" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W56" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="19.5" customHeight="1">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>Paytm SBI Credit Card Select</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>Rs 1,499</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>Rs 1,499</t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
+        <is>
+          <t>Get a Complimentary Paytm First Membership is provided on card activation as welcome offer. Welcome Cashback of Rs 750 is provided to the card holder upon activation of the credit card in your Paytm wallet.</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>5% cashback on Paytm Mall, Movies, Travel. 2% cashback on all other purchases on Paytm App. 1% cashback on other online and offline spends.</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Domestic Airport Lounge access and Priority Pass worth US $99.</t>
+        </is>
+      </c>
+      <c r="H57" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Domestic Airport Lounge access 4 times in a year, capped to 1 visit per quarter.</t>
+        </is>
+      </c>
+      <c r="I57" s="4" t="inlineStr">
+        <is>
+          <t>Your credit card is protected by Cyber Fraud Insurance Cover worth Rs 2 Lacs which covers financial loss due to fraudulent usage of your credit card by someone else.</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K57" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Priority Pass worth US $99 for 2 years of cardholder membership under the International Lounge Program.</t>
+        </is>
+      </c>
+      <c r="N57" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O57" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P57" s="4" t="inlineStr">
+        <is>
+          <t>Rs 99</t>
+        </is>
+      </c>
+      <c r="Q57" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the total transaction value.</t>
+        </is>
+      </c>
+      <c r="R57" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month or 42% per annum.</t>
+        </is>
+      </c>
+      <c r="S57" s="4" t="inlineStr">
+        <is>
+          <t>1% of Fuel Surcharge Waiver (Maximum waiver of Rs 100 per statement cycle).</t>
+        </is>
+      </c>
+      <c r="T57" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the total transaction amount (Minimum Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U57" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V57" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W57" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="19.5" customHeight="1">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>Paytm SBI Card</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Rs 499 + GST</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Rs 499 + GST</t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary membership to Paytm First worth Rs. 899.</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>3% Cashback on every Rs. 100 spent on all Paytm Mall, movies, and travel. You can earn 2% Cashback on every Rs. 100 spent on all other purchases on Paytm App on this card. You can also earn 1% Cashback on every Rs. 100 spent on any other offline/online transactions.</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I58" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K58" s="4" t="inlineStr">
+        <is>
+          <t>Redeem cashback on Paytm gift vouchers balance</t>
+        </is>
+      </c>
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N58" s="4" t="inlineStr">
+        <is>
+          <t>Covers upto Rs. 1 Lakh in case of card loss/theft.</t>
+        </is>
+      </c>
+      <c r="O58" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P58" s="4" t="inlineStr">
+        <is>
+          <t>₹ 99 while redeeming specific vouchers, gifts, and cash redemption.</t>
+        </is>
+      </c>
+      <c r="Q58" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the amount transacted</t>
+        </is>
+      </c>
+      <c r="R58" s="4" t="inlineStr">
+        <is>
+          <t>3.50% p.m. (42% p.a.)</t>
+        </is>
+      </c>
+      <c r="S58" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge will be waived off at all fuel stations in India.</t>
+        </is>
+      </c>
+      <c r="T58" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount withdrawn, subject to a minimum of Rs. 500</t>
+        </is>
+      </c>
+      <c r="U58" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V58" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W58" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="19.5" customHeight="1">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Aditya Birla SBI Card SELECT</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Shopping</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>Activation bonus of 2,000 Rewards Points.</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t>10 RP for every Rs. 100 spent on Aditya Birla Stores, 5 Reward Points for every Rs. 100 spent on Dining, Entertainment, and Hotels and 1 Reward Point for every Rs. 200 spent on other categories.</t>
+        </is>
+      </c>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I59" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
+        <is>
+          <t>You can redeem the RP’s on sbicard.com or can be used for paying outstanding balance of the credit card, 1 Reward Point = Rs. 0.25</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N59" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O59" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P59" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q59" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the conversion amount</t>
+        </is>
+      </c>
+      <c r="R59" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S59" s="4" t="inlineStr">
+        <is>
+          <t>1% surcharge waiver on fuel transactions at all fuel stations across India</t>
+        </is>
+      </c>
+      <c r="T59" s="4" t="inlineStr">
+        <is>
+          <t>2.5% on the transaction amount subject to a minimum charge of Rs 500</t>
+        </is>
+      </c>
+      <c r="U59" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V59" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W59" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="19.5" customHeight="1">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Aditya Birla SBI Card</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Travel , Shopping</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Activation bonus of 2,000 Rewards Points.</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>10 RP for every Rs. 100 spent on Aditya Birla Stores, 5 Reward Points for every Rs. 100 spent on Dining, Entertainment, and Hotels and 1 Reward Point for every Rs. 200 spent on other categories.</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K60" s="4" t="inlineStr">
+        <is>
+          <t>You can redeem the RP’s on sbicard.com or can be used for paying outstanding balance of the credit card, 1 Reward Point = Rs. 0.25</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N60" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O60" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P60" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q60" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the conversion amount</t>
+        </is>
+      </c>
+      <c r="R60" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S60" s="4" t="inlineStr">
+        <is>
+          <t>1% surcharge waiver on fuel transactions at all fuel stations across India</t>
+        </is>
+      </c>
+      <c r="T60" s="4" t="inlineStr">
+        <is>
+          <t>2.5% on the transaction amount subject to a minimum charge of Rs 500</t>
+        </is>
+      </c>
+      <c r="U60" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V60" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W60" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="19.5" customHeight="1">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Nature’s Basket SBI Card Elite</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Gift voucher worth Rs. 1,500 from Nature’s Basket and complimentary access to ‘Epicure’ Nature’s Basket Loyalty Program</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
+        <is>
+          <t>2x Reward Points on Nature’s Basket, 5 Reward Points on dining, movies, entertainment, and international spends, 1 Reward Point on every Rs. 100 spent on all other spends.</t>
+        </is>
+      </c>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary access to the airport lounges</t>
+        </is>
+      </c>
+      <c r="H61" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary visits in a year to Domestic Airport Visa Lounges in India</t>
+        </is>
+      </c>
+      <c r="I61" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>5 Reward Points while spending on dining and movie-related spends.</t>
+        </is>
+      </c>
+      <c r="K61" s="4" t="inlineStr">
+        <is>
+          <t>The reward points earned with this credit card can be redeemed via Nature’s Basket Loyalty Program or via Shop and Smile Rewards Catalogue. 4 Reward Points = Re. 1</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N61" s="4" t="inlineStr">
+        <is>
+          <t>Zero Liability Protection is provided against lost/stolen credit cards upon reporting to the customer care of the bank.</t>
+        </is>
+      </c>
+      <c r="O61" s="4" t="inlineStr">
+        <is>
+          <t>Waiver of renewal fee on the spending of Rs. 2 Lakhs or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P61" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q61" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all international transactions</t>
+        </is>
+      </c>
+      <c r="R61" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (or 42% annually)</t>
+        </is>
+      </c>
+      <c r="S61" s="4" t="inlineStr">
+        <is>
+          <t>1% at all fuel stations in India. The surcharge amount is capped at Rs. 100 per statement cycle.</t>
+        </is>
+      </c>
+      <c r="T61" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount or Rs. 500, higher of the two</t>
+        </is>
+      </c>
+      <c r="U61" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V61" s="4" t="inlineStr">
+        <is>
+          <t>The reward points can be redeemed against a wide variety of products and vouchers available at the SBI Bank’s Shop and Smile Rewards Catalogue.
+Further, the reward points can be redeemed by the Nature’s Basket Loyalty Program. The reward points can be converted into Nature’s Basket Point on the request of the credit cardholder. You can either call the customer care number mentioned on the backside of the credit card or initate the conversion process through SBI mobile banking application or by logging in to SBI Website.
+For the purpose of redemption, 4 Reward Points = Re. 1.</t>
+        </is>
+      </c>
+      <c r="W61" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="19.5" customHeight="1">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>Nature’s Basket SBI Card</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Gift voucher worth Rs. 1,500 from Nature’s Basket and complimentary access to ‘Epicure’ Nature’s Basket Loyalty Program</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>2x Reward Points on Nature’s Basket, 5 Reward Points on dining, movies, entertainment, and international spends, 1 Reward Point on every Rs. 100 spent on all other spends.</t>
+        </is>
+      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary access to the airport lounges</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="inlineStr">
+        <is>
+          <t>4 complimentary visits in a year to Domestic Airport Visa Lounges in India</t>
+        </is>
+      </c>
+      <c r="I62" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>5 Reward Points while spending on dining and movie-related spends.</t>
+        </is>
+      </c>
+      <c r="K62" s="4" t="inlineStr">
+        <is>
+          <t>The reward points earned with this credit card can be redeemed via Nature’s Basket Loyalty Program or via Shop and Smile Rewards Catalogue. 4 Reward Points = Re. 1</t>
+        </is>
+      </c>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N62" s="4" t="inlineStr">
+        <is>
+          <t>Zero Liability Protection is provided against lost/stolen credit cards upon reporting to the customer care of the bank.</t>
+        </is>
+      </c>
+      <c r="O62" s="4" t="inlineStr">
+        <is>
+          <t>Waiver of renewal fee on the spending of Rs. 2 Lakhs or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P62" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q62" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all international transactions</t>
+        </is>
+      </c>
+      <c r="R62" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (or 42% annually)</t>
+        </is>
+      </c>
+      <c r="S62" s="4" t="inlineStr">
+        <is>
+          <t>1% at all fuel stations in India. The surcharge amount is capped at Rs. 100 per statement cycle.</t>
+        </is>
+      </c>
+      <c r="T62" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount or Rs. 500, higher of the two</t>
+        </is>
+      </c>
+      <c r="U62" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V62" s="4" t="inlineStr">
+        <is>
+          <t>The reward points can be redeemed against a wide variety of products and vouchers available at the SBI Bank’s Shop and Smile Rewards Catalogue.
+Further, the reward points can be redeemed by the Nature’s Basket Loyalty Program. The reward points can be converted into Nature’s Basket Point on the request of the credit cardholder. You can either call the customer care number mentioned on the backside of the credit card or initate the conversion process through SBI mobile banking application or by logging in to SBI Website.
+For the purpose of redemption, 4 Reward Points = Re. 1.</t>
+        </is>
+      </c>
+      <c r="W62" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="19.5" customHeight="1">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>Doctor’s IMA SBI Card</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>Rs 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>Rs 1,499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Get a complimentary travel gift voucher from Yatra.com worth Rs. 1500. Voucher will be redeemed online at the time of purchase.</t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Point per Rs. 100 spent with a reward rate of 0.25% and 5 Reward Points per Rs. 100 spent on medical supplies, travel bookings and international spends with a reward rate of 1.25% and 5 reward points  on all spends on Doctor’s Day.</t>
+        </is>
+      </c>
+      <c r="G63" s="4" t="inlineStr">
+        <is>
+          <t>Free access to the priority pass program worth $99 under International Lounge Benefits</t>
+        </is>
+      </c>
+      <c r="H63" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Lounge Access for domestic airports 8 times a year, maximum 2 times a quarter</t>
+        </is>
+      </c>
+      <c r="I63" s="4" t="inlineStr">
+        <is>
+          <t>Get Professional Indemnity Insurance which covers up to Rs 20 lakhs per card and includes court awards, out-of-court settlement expenses, and reimbursement of legal and defense cost</t>
+        </is>
+      </c>
+      <c r="J63" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K63" s="4" t="inlineStr">
+        <is>
+          <t>Reward points can be redeemed against an array of options from the reward point catalogue. 1 Reward Point = Rs. 0.25</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary Lounge Access for international airports 4 times a year, maximum 2 times a quarter</t>
+        </is>
+      </c>
+      <c r="N63" s="4" t="inlineStr">
+        <is>
+          <t>Cardholder shall not be liable for any fraudulent transaction made with card post reporting the loss of card to the bank</t>
+        </is>
+      </c>
+      <c r="O63" s="4" t="inlineStr">
+        <is>
+          <t>Renewal Fee is reversed on annual spends of Rs. 2 Lakhs</t>
+        </is>
+      </c>
+      <c r="P63" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="Q63" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R63" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month or 42% per year</t>
+        </is>
+      </c>
+      <c r="S63" s="4" t="inlineStr">
+        <is>
+          <t>Waiver of 1 % fuel surcharge at all petrol stations in the country (max Rs. 250 per cycle)</t>
+        </is>
+      </c>
+      <c r="T63" s="4" t="inlineStr">
+        <is>
+          <t>2.5 % of the transaction amount or Rs. 500, whichever is lower</t>
+        </is>
+      </c>
+      <c r="U63" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V63" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W63" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="19.5" customHeight="1">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Delhi Metro SBI Credit Card</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Rs 500 + GST</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>Rs 500 + GST</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>2000 Reward Points on spending Rs 2000 within the first 60 days of the card issuance. Moreover, you get free metro cash of Rs 50 on your Delhi Metro Smart card</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>10 reward points on every Rs 100 spent on Dining, Movies, Grocery, Departmental stores, and Utility bill payments. You get 1 reward point on every Rs 100 spent on other categories</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J64" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K64" s="4" t="inlineStr">
+        <is>
+          <t>You can redeem the reward point accumulated on this card can be redeemed against the reward catalogue or statement cash.</t>
+        </is>
+      </c>
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N64" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O64" s="4" t="inlineStr">
+        <is>
+          <t>You get a renewal fee waiver of Rs 500 on spending of Rs 1,00,000 in the previous year.</t>
+        </is>
+      </c>
+      <c r="P64" s="4" t="inlineStr">
+        <is>
+          <t>Rs 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q64" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the conversion amount</t>
+        </is>
+      </c>
+      <c r="R64" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month ( 42% per annum)</t>
+        </is>
+      </c>
+      <c r="S64" s="4" t="inlineStr">
+        <is>
+          <t>1% surcharge waiver on all fuel transactions at all fuel stations across India</t>
+        </is>
+      </c>
+      <c r="T64" s="4" t="inlineStr">
+        <is>
+          <t>2.5% on the withdrawal amount subject to minimum amount of Rs 500</t>
+        </is>
+      </c>
+      <c r="U64" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V64" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W64" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="19.5" customHeight="1">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Mumbai Metro SBI Card</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>₹ 499</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>₹ 499</t>
+        </is>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t>Get Rs. 50 as preloaded value on Mumbai Metro SBI Card. Get 2000 reward points on spending ₹ 2,000 within 60 days of card issuance.</t>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t>Earn 10 reward points on every ₹ 100 spent on top-up. Earn 10 reward points on every ₹ 100 spent on dining, movies, grocery and departmental stores (up to 5000 RPs in a month). Earn 1 reward points on every ₹ 100 spent on other categories.</t>
+        </is>
+      </c>
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I65" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J65" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K65" s="4" t="inlineStr">
+        <is>
+          <t>Redeem reward points for paying outstanding balance, e-vouchers, gifts, purchasing electronics, homeware, accessories, lifestyle products, Disney+ Hotstar Premium memberships, livemint subscription and more. 1 RP = Rs. 0.25.</t>
+        </is>
+      </c>
+      <c r="L65" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N65" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O65" s="4" t="inlineStr">
+        <is>
+          <t>Waiver of renewal fee on spending Rs. 1,00,000 in the previous year.</t>
+        </is>
+      </c>
+      <c r="P65" s="4" t="inlineStr">
+        <is>
+          <t>₹ 99 (on gifts, cash redemption &amp; specific vouchers only)</t>
+        </is>
+      </c>
+      <c r="Q65" s="4" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="R65" s="4" t="inlineStr">
+        <is>
+          <t>3.50% p.m. (42% p.a.)</t>
+        </is>
+      </c>
+      <c r="S65" s="4" t="inlineStr">
+        <is>
+          <t>Avail 1% fuel surcharge waiver at all petrol pumps in India on transactions between ₹ 500 – ₹ 3000. Maximum limit of fuel surcharge waiver is capped at ₹ 100.</t>
+        </is>
+      </c>
+      <c r="T65" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the advance amount (minimum of Rs. 500)</t>
+        </is>
+      </c>
+      <c r="U65" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V65" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W65" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="19.5" customHeight="1">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>OLA Money SBI Credit Card</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>You get a flight voucher worth Rs. 300 and an EaseMyTrip voucher worth Rs. 2000.</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>1% Reward Points on all spends.</t>
+        </is>
+      </c>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I66" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K66" s="4" t="inlineStr">
+        <is>
+          <t>The reward points are automatically credited to your OLA money wallet. Here, 1 Reward Point = Rs. 1.</t>
+        </is>
+      </c>
+      <c r="L66" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N66" s="4" t="inlineStr">
+        <is>
+          <t>Zero Liability Protection is provided for a lost/stolen card if reported in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O66" s="4" t="inlineStr">
+        <is>
+          <t>Renewal fee waiver on a spend of Rs. 1 lakh or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P66" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99</t>
+        </is>
+      </c>
+      <c r="Q66" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency spends</t>
+        </is>
+      </c>
+      <c r="R66" s="4" t="inlineStr">
+        <is>
+          <t>Up to 3.5% per month</t>
+        </is>
+      </c>
+      <c r="S66" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver at all fuel stations in India with a maximum surcharge benefit of Rs. 100 in a statement cycle.</t>
+        </is>
+      </c>
+      <c r="T66" s="4" t="inlineStr">
+        <is>
+          <t>2.5% or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U66" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V66" s="4" t="inlineStr">
+        <is>
+          <t>Identity Proof: Aadhar Card, PAN Card, Voter ID, Passport, Driving Licence, etc.
+Address Proof: Passport, Utility bills, Voter ID, Aadhar Card, Driving Licence, Rent agreement, Municipal or property tax receipt, House allotment letter issued by central or state government.
+Income Proof: For self-employed individuals – Later ITR (Income Tax Return) / Form 16, For salaried employees – salary slip of latest months.</t>
+        </is>
+      </c>
+      <c r="W66" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="19.5" customHeight="1">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>SBI Unnati Credit Card</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t>1 reward point per Rs 100 you spend</t>
+        </is>
+      </c>
+      <c r="G67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K67" s="4" t="inlineStr">
+        <is>
+          <t>1 RP = Rs 0.25 on redemption against a host of gifts and benefits at the SBI Card rewards catalog.</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O67" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P67" s="4" t="inlineStr">
+        <is>
+          <t>Rs 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q67" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the conversion amount</t>
+        </is>
+      </c>
+      <c r="R67" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month ( 42% per annum)</t>
+        </is>
+      </c>
+      <c r="S67" s="4" t="inlineStr">
+        <is>
+          <t>1% surcharge waiver on all fuel purchases using the SBI Unnati credit card</t>
+        </is>
+      </c>
+      <c r="T67" s="4" t="inlineStr">
+        <is>
+          <t>2.5% on the amount withdrawn subject to a minimum charge of Rs. 500</t>
+        </is>
+      </c>
+      <c r="U67" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V67" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W67" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="19.5" customHeight="1">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>SBI Tata Platinum Card</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>3,000 + GST</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>3,000 + GST</t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>You get exclusive shopping e-Gift vouchers worth Rs 3000 from any partner exclusive such as Yatra, Hush Puppies / Bata, Aditya Birla Fashion, Westside</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>You can upto 3 Empower points on Dining, Departmental &amp; Grocery shopping, and International spends. You get 1 Empower point on every Rs 100 spent on other retail categories. You earn 1 Empower point on every Rs 100 spent on retail stores</t>
+        </is>
+      </c>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary lounge access in India at select airports</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
+        <is>
+          <t>8 complimentary lounge access in India with Mastercard at select airports</t>
+        </is>
+      </c>
+      <c r="I68" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K68" s="4" t="inlineStr">
+        <is>
+          <t>1 Empower Point = Rs. 1 can be redeemed against the Tata Loyalty program- The Empower Program or you can simply redeem your reward points at TATA merchant outlets.</t>
+        </is>
+      </c>
+      <c r="L68" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N68" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O68" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P68" s="4" t="inlineStr">
+        <is>
+          <t>Rs 99 per redemption request</t>
+        </is>
+      </c>
+      <c r="Q68" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on the conversion amount</t>
+        </is>
+      </c>
+      <c r="R68" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S68" s="4" t="inlineStr">
+        <is>
+          <t>1% surcharge waiver on fuel transactions at all fuel stations across India</t>
+        </is>
+      </c>
+      <c r="T68" s="4" t="inlineStr">
+        <is>
+          <t>2.5% on the transaction amount subject to a minimum charge of Rs 500</t>
+        </is>
+      </c>
+      <c r="U68" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V68" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W68" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="19.5" customHeight="1">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>FABindia SBI Card SELECT</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499</t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>Fabindia gift vouchers worth Rs. 500 &amp; Fabfamily Gold Tier membership.</t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t>5 RPs per Rs. 100 spent on Fabindia stores, 2 RPs per Rs. 100 spent on dining, entertainment &amp; movies, 1 Reward Point per Rs. 100 spent on international spends, 1 Reward Points per Rs. 200 spent on all other categories.</t>
+        </is>
+      </c>
+      <c r="G69" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I69" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K69" s="4" t="inlineStr">
+        <is>
+          <t>The Reward Points can be converted into Fabfamily Rewards and can be redeemed against shopping at a rate of 1 Reward Point = 1 Fabfamily Reward = Re. 1.</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N69" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder shall not be liable for any unauthorized transactions made on his/her card after reporting the card as lost/stolen to the bank.</t>
+        </is>
+      </c>
+      <c r="O69" s="4" t="inlineStr">
+        <is>
+          <t>Get your renewal fee waived off on a minimum spend of Rs 1 lakh in the previous year.</t>
+        </is>
+      </c>
+      <c r="P69" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99</t>
+        </is>
+      </c>
+      <c r="Q69" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency spends</t>
+        </is>
+      </c>
+      <c r="R69" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month</t>
+        </is>
+      </c>
+      <c r="S69" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for all fuel transactions up to Rs. 3,000</t>
+        </is>
+      </c>
+      <c r="T69" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the cash amount withdrawn or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U69" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V69" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W69" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="19.5" customHeight="1">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>FABINDIA SBI Card</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499</t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>Fabindia gift vouchers worth Rs. 500 &amp; Fabfamily Gold Tier membership.</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>5 RPs per Rs. 100 spent on Fabindia stores, 2 RPs per Rs. 100 spent on dining, entertainment &amp; movies, 1 Reward Point per Rs. 100 spent on international spends, 1 Reward Points per Rs. 200 spent on all other categories.</t>
+        </is>
+      </c>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t>The Reward Points can be converted into Fabfamily Rewards and can be redeemed against shopping at a rate of 1 Reward Point = 1 Fabfamily Reward = Re. 1.</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder shall not be liable for any unauthorized transactions made on his/her card after reporting the card as lost/stolen to the bank.</t>
+        </is>
+      </c>
+      <c r="O70" s="4" t="inlineStr">
+        <is>
+          <t>Get your renewal fee waived off on a minimum spend of Rs 1 lakh in the previous year.</t>
+        </is>
+      </c>
+      <c r="P70" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99</t>
+        </is>
+      </c>
+      <c r="Q70" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency spends</t>
+        </is>
+      </c>
+      <c r="R70" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month</t>
+        </is>
+      </c>
+      <c r="S70" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for all fuel transactions up to Rs. 3,000</t>
+        </is>
+      </c>
+      <c r="T70" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the cash amount withdrawn or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U70" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V70" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W70" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="19.5" customHeight="1">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Lifestyle Home Centre SBI Card</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 plus applicable taxes</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 plus applicable taxes</t>
+        </is>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t>2,000 bonus reward points worth Rs. 500 on card activation and Rs. 100 cash back on your first ATM cash withdrawal within 30 days of card activation.</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>5 Reward Points on every Rs. 100 spent at Online &amp; Retail Landmark Stores (Lifestyle, Home Centre, Max and Spar) Dining &amp; Movies. Earn 1 Reward point Rs. 100 spent on other retail purchases (except Fuel).</t>
+        </is>
+      </c>
+      <c r="G71" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I71" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t>Redeem Reward Points instantly at Lifestyle, Home Centre and Max stores (1 Landmark Reward = Rs 0.60).</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O71" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P71" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request.</t>
+        </is>
+      </c>
+      <c r="Q71" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R71" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S71" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for fuel transaction between Rs. 500 to Rs. 3,000. Capped at Rs. 100 per statement cycle.</t>
+        </is>
+      </c>
+      <c r="T71" s="4" t="inlineStr">
+        <is>
+          <t>2.5% subject minimum Rs. 500</t>
+        </is>
+      </c>
+      <c r="U71" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V71" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W71" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="19.5" customHeight="1">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Lifestyle Home Centre SBI Card Prime</t>
+        </is>
+      </c>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 plus applicable taxes</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 plus applicable taxes</t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t>2,000 bonus reward points worth Rs. 500 on card activation and Rs. 100 cash back on your first ATM cash withdrawal within 30 days of card activation.</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>5 Reward Points on every Rs. 100 spent at Online &amp; Retail Landmark Stores (Lifestyle, Home Centre, Max and Spar) Dining &amp; Movies. Earn 1 Reward point Rs. 100 spent on other retail purchases (except Fuel).</t>
+        </is>
+      </c>
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I72" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K72" s="4" t="inlineStr">
+        <is>
+          <t>Redeem Reward Points instantly at Lifestyle, Home Centre and Max stores (1 Landmark Reward = Rs 0.60).</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M72" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N72" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O72" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P72" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 per redemption request.</t>
+        </is>
+      </c>
+      <c r="Q72" s="4" t="inlineStr">
+        <is>
+          <t>3.5% of the transaction amount</t>
+        </is>
+      </c>
+      <c r="R72" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (42% per annum)</t>
+        </is>
+      </c>
+      <c r="S72" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver for fuel transaction between Rs. 500 to Rs. 3,000. Capped at Rs. 100 per statement cycle.</t>
+        </is>
+      </c>
+      <c r="T72" s="4" t="inlineStr">
+        <is>
+          <t>2.5% subject minimum Rs. 500</t>
+        </is>
+      </c>
+      <c r="U72" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V72" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W72" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="19.5" customHeight="1">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Apollo SBI Credit Card</t>
+        </is>
+      </c>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 499 (plus applicable taxes)</t>
+        </is>
+      </c>
+      <c r="E73" s="4" t="inlineStr">
+        <is>
+          <t>500 Reward Points and complimentary Apollo Gold Tier Membership</t>
+        </is>
+      </c>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>3x Reward Points on Apollo Services, 2x Reward Points on dining, movies, and entertainment, 1 Reward Point on every Rs. 100 spent on all other spends.</t>
+        </is>
+      </c>
+      <c r="G73" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I73" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>2x Reward Points while spending on dining and movie related spends.</t>
+        </is>
+      </c>
+      <c r="K73" s="4" t="inlineStr">
+        <is>
+          <t>They can only be redeemed to avail services at Apollo Healthcare Centers and related stores.</t>
+        </is>
+      </c>
+      <c r="L73" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M73" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N73" s="4" t="inlineStr">
+        <is>
+          <t>Zero Liability Protection is provided against lost/stolen credit cards upon reporting to the customer care of the bank.</t>
+        </is>
+      </c>
+      <c r="O73" s="4" t="inlineStr">
+        <is>
+          <t>Waiver of renewal fee on the spending of Rs. 1 Lakh or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P73" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99</t>
+        </is>
+      </c>
+      <c r="Q73" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all international transactions</t>
+        </is>
+      </c>
+      <c r="R73" s="4" t="inlineStr">
+        <is>
+          <t>3.5% per month (or 42% annually)</t>
+        </is>
+      </c>
+      <c r="S73" s="4" t="inlineStr">
+        <is>
+          <t>1% at all fuel stations in India. Surcharge amount is capped at Rs. 100 in a month.</t>
+        </is>
+      </c>
+      <c r="T73" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the amount or Rs. 500, higher of the two</t>
+        </is>
+      </c>
+      <c r="U73" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V73" s="4" t="inlineStr">
+        <is>
+          <t>Only Indian residents can apply for this card.
+Both salaried and self-employed individuals, above the age of 18 years can apply for this credit card.
+The add-on cardholder should at least be 18 years of age to get this card.
+The cardholder should have a stable source of income.
+The cardholder must have a good credit score to be eligible for this credit card.</t>
+        </is>
+      </c>
+      <c r="W73" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="19.5" customHeight="1">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>SBI Shaurya Credit Card</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 250</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 250</t>
+        </is>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t>1,000 bonus Reward Points</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>1 Reward Points on every spend of Rs. 100 and 5x Reward Points on groceries, dining, CSD, movies, departmental stores, etc.</t>
+        </is>
+      </c>
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I74" s="4" t="inlineStr">
+        <is>
+          <t>Personal accident insurance cover worth Rs. 2 lakhs.</t>
+        </is>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K74" s="4" t="inlineStr">
+        <is>
+          <t>The reward points you earn can be redeemed against various options from the Rewards catalogue or against the card’s outstanding balance at a rate of 1 RP = Re. 0.25.</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N74" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O74" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee is waived off if you spend Rs. 50,000 or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P74" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 on each redemption request.</t>
+        </is>
+      </c>
+      <c r="Q74" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency spends.</t>
+        </is>
+      </c>
+      <c r="R74" s="4" t="inlineStr">
+        <is>
+          <t>2.75% p.m. (33% annually)</t>
+        </is>
+      </c>
+      <c r="S74" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions between Rs. 500 and Rs. 3,000.</t>
+        </is>
+      </c>
+      <c r="T74" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount or Rs. 500 (whichever is higher)</t>
+        </is>
+      </c>
+      <c r="U74" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V74" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W74" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="19.5" customHeight="1">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>SBI Shaurya Select Credit Card</t>
+        </is>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr">
+        <is>
+          <t>2 Reward Points on every spend of Rs. 100, 5x Reward Points on dining, groceries, departmental stores, and movies.</t>
+        </is>
+      </c>
+      <c r="G75" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I75" s="4" t="inlineStr">
+        <is>
+          <t>Complimentary insurance cover worth Rs. 10 lakhs against personal accident.</t>
+        </is>
+      </c>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K75" s="4" t="inlineStr">
+        <is>
+          <t>The Reward Points can be redeemed against the card’s outstanding balance and various other options. 1 Reward Point = Re. 0.25.</t>
+        </is>
+      </c>
+      <c r="L75" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M75" s="4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N75" s="4" t="inlineStr">
+        <is>
+          <t>The cardholder will not be liable for any fraudulent transactions made against a lost/stolen card if the card is reported lost to the bank in a timely manner.</t>
+        </is>
+      </c>
+      <c r="O75" s="4" t="inlineStr">
+        <is>
+          <t>The renewal fee is waived off on spending Rs. 1,50,000 or more in the previous year.</t>
+        </is>
+      </c>
+      <c r="P75" s="4" t="inlineStr">
+        <is>
+          <t>Rs. 99 on every redemption request</t>
+        </is>
+      </c>
+      <c r="Q75" s="4" t="inlineStr">
+        <is>
+          <t>3.5% on all foreign currency spends.</t>
+        </is>
+      </c>
+      <c r="R75" s="4" t="inlineStr">
+        <is>
+          <t>2.75% p.m. (33% annually)</t>
+        </is>
+      </c>
+      <c r="S75" s="4" t="inlineStr">
+        <is>
+          <t>1% fuel surcharge waiver on all fuel transactions between Rs. 500 and Rs. 4,000.</t>
+        </is>
+      </c>
+      <c r="T75" s="4" t="inlineStr">
+        <is>
+          <t>2.5% of the withdrawn amount or a minimum of Rs. 500.</t>
+        </is>
+      </c>
+      <c r="U75" s="4" t="inlineStr">
+        <is>
+          <t>Nil</t>
+        </is>
+      </c>
+      <c r="V75" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W75" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="19.5" customHeight="1">
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>Max SBI Card SELECT</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W76" s="4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>